--- a/JRL_Simulator/Win32/Debug/Config/Config_Simulator.xlsx
+++ b/JRL_Simulator/Win32/Debug/Config/Config_Simulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\03. Rotem\2021. 11. Singapore_JRL\011_Simulator\010_Source\JRL_Simulator\Win32\Debug\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9865C4-5BA3-4E6D-8E92-C765F801FC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE610007-0EDA-49EF-9C71-7E286F5543E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="791" activeTab="2" xr2:uid="{78B8D3DC-9A5B-4C98-B74C-04A1A542662F}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="791" activeTab="1" xr2:uid="{78B8D3DC-9A5B-4C98-B74C-04A1A542662F}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -42,14 +42,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="220">
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Protocol
-(Sheet Name)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -65,11 +60,6 @@
   <si>
     <t>Car
 Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type
-(SD/SDR)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1047,6 +1037,67 @@
   <si>
     <t>VCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Total : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protocol Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Signal
+Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCUA1 (SD)</t>
+  </si>
+  <si>
+    <t>DCUA2 (SD)</t>
+  </si>
+  <si>
+    <t>DCUA3 (SD)</t>
+  </si>
+  <si>
+    <t>DCUB1 (SD)</t>
+  </si>
+  <si>
+    <t>DCUB2 (SD)</t>
+  </si>
+  <si>
+    <t>DCUB3 (SD)</t>
+  </si>
+  <si>
+    <t>DCUA1 (SDR)</t>
+  </si>
+  <si>
+    <t>DCUA2 (SDR)</t>
+  </si>
+  <si>
+    <t>DCUA3 (SDR)</t>
+  </si>
+  <si>
+    <t>DCUB1 (SDR)</t>
+  </si>
+  <si>
+    <t>DCUB2 (SDR)</t>
+  </si>
+  <si>
+    <t>DCUB3 (SDR)</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1350,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1393,16 +1444,82 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,55 +1540,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1483,6 +1555,9 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1492,29 +1567,14 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1844,212 +1904,855 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D7D11C-CEBF-4B3C-9ACA-7C7791C0172D}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="3" width="7.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="7.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="24.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="72" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="74">
+        <f>SUM(C4:C24)</f>
+        <v>2484</v>
+      </c>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="C4" s="2">
+        <v>192</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f>+B4+C4</f>
+        <v>192</v>
+      </c>
+      <c r="C5" s="2">
+        <v>192</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B39" si="0">+B5+C5</f>
+        <v>384</v>
+      </c>
+      <c r="C6" s="2">
+        <v>192</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="C7" s="2">
+        <v>192</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="C8" s="2">
+        <v>192</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="C9" s="2">
+        <v>192</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>1152</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>1172</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>1192</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>1212</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>1232</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>1252</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>1272</v>
+      </c>
+      <c r="C16" s="2">
+        <v>192</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>1464</v>
+      </c>
+      <c r="C17" s="2">
+        <v>192</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>1656</v>
+      </c>
+      <c r="C18" s="2">
+        <v>192</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>1848</v>
+      </c>
+      <c r="C19" s="2">
+        <v>192</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="C20" s="2">
+        <v>192</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>2232</v>
+      </c>
+      <c r="C21" s="2">
+        <v>192</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>2424</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>2444</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>2464</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>2484</v>
+      </c>
+      <c r="C25" s="2">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>2504</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>2524</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>2544</v>
+      </c>
+      <c r="C28" s="2">
+        <v>192</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>2736</v>
+      </c>
+      <c r="C29" s="2">
+        <v>192</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>2928</v>
+      </c>
+      <c r="C30" s="2">
+        <v>192</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>3120</v>
+      </c>
+      <c r="C31" s="2">
+        <v>192</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>3312</v>
+      </c>
+      <c r="C32" s="2">
+        <v>192</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>3504</v>
+      </c>
+      <c r="C33" s="2">
+        <v>192</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>3696</v>
+      </c>
+      <c r="C34" s="2">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>3716</v>
+      </c>
+      <c r="C35" s="2">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>3736</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>3756</v>
+      </c>
+      <c r="C37" s="2">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>3776</v>
+      </c>
+      <c r="C38" s="2">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>3796</v>
+      </c>
+      <c r="C39" s="2">
+        <v>20</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2060,594 +2763,594 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4875A6D9-526E-4B71-9A54-4FB171881773}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="66" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="31" customWidth="1"/>
     <col min="2" max="4" width="22.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="4.625" customWidth="1"/>
     <col min="7" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66">
+    <row r="1" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31">
         <v>0</v>
       </c>
-      <c r="B1" s="66">
+      <c r="B1" s="31">
         <v>1</v>
       </c>
-      <c r="C1" s="66">
+      <c r="C1" s="31">
         <v>2</v>
       </c>
-      <c r="D1" s="66">
+      <c r="D1" s="31">
         <v>3</v>
       </c>
-      <c r="E1" s="66">
+      <c r="E1" s="31">
         <v>4</v>
       </c>
-      <c r="F1" s="66">
+      <c r="F1" s="31">
         <v>5</v>
       </c>
-      <c r="G1" s="66">
+      <c r="G1" s="31">
         <v>6</v>
       </c>
-      <c r="H1" s="66">
+      <c r="H1" s="31">
         <v>7</v>
       </c>
-      <c r="I1" s="66">
+      <c r="I1" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66">
+    <row r="2" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="66">
-        <v>2</v>
-      </c>
-      <c r="B3" s="67" t="s">
+    <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C4" s="33" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66">
-        <v>3</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="D4" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="G4" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="C5" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" s="69" t="s">
+      <c r="D5" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="69" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="66">
-        <v>4</v>
-      </c>
-      <c r="B5" s="70" t="s">
+      <c r="G5" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="71" t="s">
+      <c r="C6" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="66">
-        <v>5</v>
-      </c>
-      <c r="B6" s="70" t="s">
+      <c r="D6" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="D7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="66">
-        <v>6</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70" t="s">
+      <c r="C8" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="66">
-        <v>7</v>
-      </c>
-      <c r="B8" s="70" t="s">
+      <c r="D8" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="66">
-        <v>8</v>
-      </c>
-      <c r="B9" s="70" t="s">
+      <c r="C10" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70" t="s">
+      <c r="C11" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="66">
-        <v>9</v>
-      </c>
-      <c r="B10" s="70" t="s">
+      <c r="D11" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C12" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D12" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="66">
-        <v>10</v>
-      </c>
-      <c r="B11" s="70" t="s">
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C13" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D13" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="66">
-        <v>11</v>
-      </c>
-      <c r="B12" s="70" t="s">
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C14" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="66">
-        <v>12</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="66">
-        <v>13</v>
-      </c>
-      <c r="B14" s="70" t="s">
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C15" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D15" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="66">
-        <v>14</v>
-      </c>
-      <c r="B15" s="70" t="s">
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C16" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="66">
-        <v>15</v>
-      </c>
-      <c r="B16" s="70" t="s">
+      <c r="H16" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C17" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D17" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="G16" s="71" t="s">
+      <c r="G17" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="71" t="s">
+      <c r="C18" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="I16" s="71" t="s">
+      <c r="D18" s="35" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="66">
-        <v>16</v>
-      </c>
-      <c r="B17" s="70" t="s">
+      <c r="G18" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>18</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C19" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D19" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="G17" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="I17" s="71" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="66">
-        <v>17</v>
-      </c>
-      <c r="B18" s="70" t="s">
+      <c r="G19" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
+        <v>19</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C20" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D20" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="G18" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="I18" s="71" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="66">
-        <v>18</v>
-      </c>
-      <c r="B19" s="70" t="s">
+      <c r="G20" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>20</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C21" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D21" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="I19" s="71" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="66">
-        <v>19</v>
-      </c>
-      <c r="B20" s="70" t="s">
+      <c r="G21" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
+        <v>21</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C22" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D22" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="G20" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="I20" s="71" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="66">
-        <v>20</v>
-      </c>
-      <c r="B21" s="70" t="s">
+      <c r="G22" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="H22" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="I22" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="G21" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="71" t="s">
-        <v>188</v>
-      </c>
-      <c r="I21" s="71" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="66">
-        <v>21</v>
-      </c>
-      <c r="B22" s="70" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C23" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D23" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G23" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
+        <v>23</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="C24" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="71" t="s">
+      <c r="D24" s="35" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="66">
-        <v>22</v>
-      </c>
-      <c r="B23" s="70" t="s">
+      <c r="G24" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C25" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D25" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="G23" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="H23" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="I23" s="71" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="66">
-        <v>23</v>
-      </c>
-      <c r="B24" s="70" t="s">
+      <c r="G25" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C26" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D26" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="H24" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="I24" s="71" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="66">
-        <v>24</v>
-      </c>
-      <c r="B25" s="70" t="s">
+      <c r="G26" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C27" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D27" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="G25" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="H25" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="I25" s="71" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="66">
-        <v>25</v>
-      </c>
-      <c r="B26" s="70" t="s">
+      <c r="G27" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="G26" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="H26" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="I26" s="71" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="66">
-        <v>26</v>
-      </c>
-      <c r="B27" s="70" t="s">
+      <c r="D28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C29" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D29" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="I27" s="71" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="66">
-        <v>27</v>
-      </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70" t="s">
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="66">
-        <v>28</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="66">
-        <v>29</v>
-      </c>
-      <c r="B30" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="D30" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
+      <c r="C30" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2679,7 +3382,7 @@
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD243"/>
+      <selection activeCell="B6" sqref="B6:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3073,64 +3776,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="55" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="54" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:36" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:36" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="C3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="41" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="49" t="s">
-        <v>16</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
@@ -3159,33 +3862,33 @@
       <c r="AJ3" s="12"/>
     </row>
     <row r="4" spans="1:36" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="10"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -3213,33 +3916,33 @@
       <c r="AJ4" s="12"/>
     </row>
     <row r="5" spans="1:36" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="49"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="10"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -3267,241 +3970,241 @@
       <c r="AJ5" s="12"/>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+      <c r="A6" s="42">
         <v>0</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="41" t="s">
-        <v>34</v>
+      <c r="C6" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47" t="s">
+        <v>32</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="42"/>
+      <c r="C7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="50">
         <v>1</v>
       </c>
       <c r="B8" s="16">
         <v>2</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="C8" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="16">
         <v>3</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
+      <c r="A10" s="42">
         <v>2</v>
       </c>
       <c r="B10" s="15">
         <v>4</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
+      <c r="C10" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="15">
         <v>5</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="C11" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="50">
         <v>3</v>
       </c>
       <c r="B12" s="16">
         <v>6</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="C12" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="16">
         <v>7</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="45"/>
+      <c r="C13" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
+      <c r="A14" s="42">
         <v>4</v>
       </c>
       <c r="B14" s="15">
         <v>8</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
+      <c r="C14" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="15">
         <v>9</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
+      <c r="C15" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="50">
         <v>5</v>
       </c>
       <c r="B16" s="16">
         <v>10</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41" t="s">
-        <v>48</v>
+      <c r="C16" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="47" t="s">
+        <v>46</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="16">
         <v>11</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="42"/>
+      <c r="C17" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
+      <c r="A18" s="42">
         <v>6</v>
       </c>
       <c r="B18" s="15">
@@ -3518,7 +4221,7 @@
       <c r="K18" s="17"/>
     </row>
     <row r="19" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="15">
         <v>13</v>
       </c>
@@ -3558,7 +4261,7 @@
       <c r="AJ19" s="23"/>
     </row>
     <row r="20" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
+      <c r="A20" s="50">
         <v>7</v>
       </c>
       <c r="B20" s="16">
@@ -3570,16 +4273,16 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="K20" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>52</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
@@ -3608,7 +4311,7 @@
       <c r="AJ20" s="23"/>
     </row>
     <row r="21" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="16">
         <v>15</v>
       </c>
@@ -3618,16 +4321,16 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="K21" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6"/>
@@ -3656,7 +4359,7 @@
       <c r="AJ21" s="23"/>
     </row>
     <row r="22" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31">
+      <c r="A22" s="42">
         <v>8</v>
       </c>
       <c r="B22" s="15">
@@ -3668,16 +4371,16 @@
       <c r="F22" s="20"/>
       <c r="G22" s="26"/>
       <c r="H22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="K22" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
@@ -3706,7 +4409,7 @@
       <c r="AJ22" s="23"/>
     </row>
     <row r="23" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="15">
         <v>17</v>
       </c>
@@ -3716,16 +4419,16 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>62</v>
-      </c>
       <c r="K23" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
@@ -3754,7 +4457,7 @@
       <c r="AJ23" s="23"/>
     </row>
     <row r="24" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
+      <c r="A24" s="50">
         <v>9</v>
       </c>
       <c r="B24" s="16">
@@ -3766,16 +4469,16 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="K24" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
@@ -3804,7 +4507,7 @@
       <c r="AJ24" s="23"/>
     </row>
     <row r="25" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="16">
         <v>19</v>
       </c>
@@ -3814,16 +4517,16 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="K25" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
@@ -3853,19 +4556,17 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="C17:J17"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="C13:J13"/>
@@ -3877,17 +4578,19 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -3903,8 +4606,8 @@
   </sheetPr>
   <dimension ref="A1:AJ197"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:J8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A168" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4298,64 +5001,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="54" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="55" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="54"/>
+      <c r="J2" s="38"/>
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:36" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="41" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="49" t="s">
-        <v>16</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
@@ -4384,33 +5087,33 @@
       <c r="AJ3" s="12"/>
     </row>
     <row r="4" spans="1:36" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="10"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -4438,33 +5141,33 @@
       <c r="AJ4" s="12"/>
     </row>
     <row r="5" spans="1:36" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="J5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="49"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="10"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -4492,45 +5195,45 @@
       <c r="AJ5" s="12"/>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
+      <c r="A6" s="42">
         <v>0</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="7" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="65"/>
+      <c r="C7" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -4558,20 +5261,20 @@
       <c r="AJ7" s="23"/>
     </row>
     <row r="8" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="50">
         <v>1</v>
       </c>
       <c r="B8" s="16">
         <v>2</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="17"/>
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
@@ -4600,7 +5303,7 @@
       <c r="AJ8" s="23"/>
     </row>
     <row r="9" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="16">
         <v>3</v>
       </c>
@@ -4640,24 +5343,24 @@
       <c r="AJ9" s="23"/>
     </row>
     <row r="10" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
+      <c r="A10" s="42">
         <v>2</v>
       </c>
       <c r="B10" s="15">
         <v>4</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
+      <c r="C10" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="17"/>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
@@ -4686,22 +5389,22 @@
       <c r="AJ10" s="23"/>
     </row>
     <row r="11" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="15">
         <v>5</v>
       </c>
-      <c r="C11" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
+      <c r="C11" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="17"/>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
@@ -4730,7 +5433,7 @@
       <c r="AJ11" s="23"/>
     </row>
     <row r="12" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="50">
         <v>3</v>
       </c>
       <c r="B12" s="16">
@@ -4772,22 +5475,22 @@
       <c r="AJ12" s="23"/>
     </row>
     <row r="13" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="16">
         <v>7</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="41" t="s">
-        <v>84</v>
+      <c r="C13" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="6"/>
@@ -4816,23 +5519,23 @@
       <c r="AJ13" s="23"/>
     </row>
     <row r="14" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
+      <c r="A14" s="42">
         <v>4</v>
       </c>
       <c r="B14" s="15">
         <v>8</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="57"/>
+      <c r="C14" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="68"/>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -4860,21 +5563,21 @@
       <c r="AJ14" s="23"/>
     </row>
     <row r="15" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="15">
         <v>9</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="42"/>
+      <c r="C15" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -4902,38 +5605,38 @@
       <c r="AJ15" s="23"/>
     </row>
     <row r="16" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="50">
         <v>5</v>
       </c>
       <c r="B16" s="16">
         <v>10</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="F16" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="G16" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="H16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="J16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="K16" s="47" t="s">
         <v>93</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="41" t="s">
-        <v>95</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="6"/>
@@ -4962,35 +5665,35 @@
       <c r="AJ16" s="23"/>
     </row>
     <row r="17" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="16">
         <v>11</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="G17" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="H17" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="I17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="J17" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="42"/>
+      <c r="K17" s="48"/>
       <c r="L17" s="5"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -5018,38 +5721,38 @@
       <c r="AJ17" s="23"/>
     </row>
     <row r="18" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
+      <c r="A18" s="42">
         <v>6</v>
       </c>
       <c r="B18" s="15">
         <v>12</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="F18" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="G18" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="H18" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="I18" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="J18" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="K18" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
@@ -5078,36 +5781,36 @@
       <c r="AJ18" s="23"/>
     </row>
     <row r="19" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="15">
         <v>13</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="G19" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="H19" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="I19" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="J19" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>120</v>
-      </c>
       <c r="K19" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
@@ -5136,7 +5839,7 @@
       <c r="AJ19" s="23"/>
     </row>
     <row r="20" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
+      <c r="A20" s="50">
         <v>7</v>
       </c>
       <c r="B20" s="16">
@@ -5148,16 +5851,16 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="K20" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
@@ -5186,7 +5889,7 @@
       <c r="AJ20" s="23"/>
     </row>
     <row r="21" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="16">
         <v>15</v>
       </c>
@@ -5226,7 +5929,7 @@
       <c r="AJ21" s="23"/>
     </row>
     <row r="22" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31">
+      <c r="A22" s="42">
         <v>8</v>
       </c>
       <c r="B22" s="15">
@@ -5240,7 +5943,7 @@
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="5"/>
@@ -5270,7 +5973,7 @@
       <c r="AJ22" s="23"/>
     </row>
     <row r="23" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="15">
         <v>17</v>
       </c>
@@ -5280,16 +5983,16 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="K23" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="6"/>
@@ -5318,24 +6021,24 @@
       <c r="AJ23" s="23"/>
     </row>
     <row r="24" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
+      <c r="A24" s="50">
         <v>9</v>
       </c>
       <c r="B24" s="16">
         <v>18</v>
       </c>
-      <c r="C24" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="41" t="s">
-        <v>130</v>
+      <c r="C24" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="47" t="s">
+        <v>128</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="6"/>
@@ -5364,21 +6067,21 @@
       <c r="AJ24" s="23"/>
     </row>
     <row r="25" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="16">
         <v>19</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="42"/>
+      <c r="C25" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="48"/>
       <c r="L25" s="5"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -5406,24 +6109,24 @@
       <c r="AJ25" s="23"/>
     </row>
     <row r="26" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31">
+      <c r="A26" s="42">
         <v>10</v>
       </c>
       <c r="B26" s="15">
         <v>20</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="41" t="s">
-        <v>132</v>
+      <c r="C26" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="47" t="s">
+        <v>130</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="6"/>
@@ -5452,21 +6155,21 @@
       <c r="AJ26" s="23"/>
     </row>
     <row r="27" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="15">
         <v>21</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="42"/>
+      <c r="C27" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="48"/>
       <c r="L27" s="5"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -5494,24 +6197,24 @@
       <c r="AJ27" s="23"/>
     </row>
     <row r="28" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33">
+      <c r="A28" s="50">
         <v>11</v>
       </c>
       <c r="B28" s="16">
         <v>22</v>
       </c>
-      <c r="C28" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="41" t="s">
-        <v>134</v>
+      <c r="C28" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="6"/>
@@ -5540,21 +6243,21 @@
       <c r="AJ28" s="23"/>
     </row>
     <row r="29" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="16">
         <v>23</v>
       </c>
-      <c r="C29" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="42"/>
+      <c r="C29" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="48"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -5582,24 +6285,24 @@
       <c r="AJ29" s="23"/>
     </row>
     <row r="30" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31">
+      <c r="A30" s="42">
         <v>12</v>
       </c>
       <c r="B30" s="15">
         <v>24</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="41" t="s">
-        <v>136</v>
+      <c r="C30" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="47" t="s">
+        <v>134</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="6"/>
@@ -5628,21 +6331,21 @@
       <c r="AJ30" s="23"/>
     </row>
     <row r="31" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="15">
         <v>25</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="57"/>
+      <c r="C31" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="68"/>
       <c r="L31" s="5"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
@@ -5670,23 +6373,23 @@
       <c r="AJ31" s="23"/>
     </row>
     <row r="32" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33">
+      <c r="A32" s="50">
         <v>13</v>
       </c>
       <c r="B32" s="16">
         <v>26</v>
       </c>
-      <c r="C32" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="57"/>
+      <c r="C32" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="68"/>
       <c r="L32" s="5"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -5714,21 +6417,21 @@
       <c r="AJ32" s="23"/>
     </row>
     <row r="33" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="16">
         <v>27</v>
       </c>
-      <c r="C33" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="42"/>
+      <c r="C33" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="48"/>
       <c r="L33" s="5"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -5756,7 +6459,7 @@
       <c r="AJ33" s="23"/>
     </row>
     <row r="34" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31">
+      <c r="A34" s="42">
         <v>14</v>
       </c>
       <c r="B34" s="15">
@@ -5798,7 +6501,7 @@
       <c r="AJ34" s="23"/>
     </row>
     <row r="35" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="15">
         <v>29</v>
       </c>
@@ -5838,7 +6541,7 @@
       <c r="AJ35" s="23"/>
     </row>
     <row r="36" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33">
+      <c r="A36" s="50">
         <v>15</v>
       </c>
       <c r="B36" s="16">
@@ -5880,7 +6583,7 @@
       <c r="AJ36" s="23"/>
     </row>
     <row r="37" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="16">
         <v>31</v>
       </c>
@@ -5920,24 +6623,24 @@
       <c r="AJ37" s="23"/>
     </row>
     <row r="38" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31">
+      <c r="A38" s="42">
         <v>16</v>
       </c>
       <c r="B38" s="15">
         <v>32</v>
       </c>
-      <c r="C38" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="64" t="s">
-        <v>137</v>
+      <c r="C38" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="63" t="s">
+        <v>135</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="6"/>
@@ -5966,21 +6669,21 @@
       <c r="AJ38" s="23"/>
     </row>
     <row r="39" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="15">
         <v>33</v>
       </c>
-      <c r="C39" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="65"/>
+      <c r="C39" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="64"/>
       <c r="L39" s="5"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -6008,20 +6711,20 @@
       <c r="AJ39" s="23"/>
     </row>
     <row r="40" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33">
+      <c r="A40" s="50">
         <v>17</v>
       </c>
       <c r="B40" s="16">
         <v>34</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="45"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="54"/>
       <c r="K40" s="17"/>
       <c r="L40" s="5"/>
       <c r="M40" s="6"/>
@@ -6050,7 +6753,7 @@
       <c r="AJ40" s="23"/>
     </row>
     <row r="41" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="16">
         <v>35</v>
       </c>
@@ -6090,24 +6793,24 @@
       <c r="AJ41" s="23"/>
     </row>
     <row r="42" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31">
+      <c r="A42" s="42">
         <v>18</v>
       </c>
       <c r="B42" s="15">
         <v>36</v>
       </c>
-      <c r="C42" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="63"/>
+      <c r="C42" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="71"/>
       <c r="K42" s="17"/>
       <c r="L42" s="5"/>
       <c r="M42" s="6"/>
@@ -6136,22 +6839,22 @@
       <c r="AJ42" s="23"/>
     </row>
     <row r="43" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="15">
         <v>37</v>
       </c>
-      <c r="C43" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
+      <c r="C43" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="71"/>
       <c r="K43" s="17"/>
       <c r="L43" s="5"/>
       <c r="M43" s="6"/>
@@ -6180,7 +6883,7 @@
       <c r="AJ43" s="23"/>
     </row>
     <row r="44" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33">
+      <c r="A44" s="50">
         <v>19</v>
       </c>
       <c r="B44" s="16">
@@ -6222,22 +6925,22 @@
       <c r="AJ44" s="23"/>
     </row>
     <row r="45" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="34"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="16">
         <v>39</v>
       </c>
-      <c r="C45" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="41" t="s">
-        <v>84</v>
+      <c r="C45" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="6"/>
@@ -6266,23 +6969,23 @@
       <c r="AJ45" s="23"/>
     </row>
     <row r="46" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="31">
+      <c r="A46" s="42">
         <v>20</v>
       </c>
       <c r="B46" s="15">
         <v>40</v>
       </c>
-      <c r="C46" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="57"/>
+      <c r="C46" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="68"/>
       <c r="L46" s="5"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
@@ -6310,21 +7013,21 @@
       <c r="AJ46" s="23"/>
     </row>
     <row r="47" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="15">
         <v>41</v>
       </c>
-      <c r="C47" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="42"/>
+      <c r="C47" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="48"/>
       <c r="L47" s="5"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
@@ -6352,38 +7055,38 @@
       <c r="AJ47" s="23"/>
     </row>
     <row r="48" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33">
+      <c r="A48" s="50">
         <v>21</v>
       </c>
       <c r="B48" s="16">
         <v>42</v>
       </c>
       <c r="C48" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="F48" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="G48" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="H48" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="I48" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="J48" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="K48" s="41" t="s">
-        <v>138</v>
+      <c r="K48" s="47" t="s">
+        <v>136</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="6"/>
@@ -6412,35 +7115,35 @@
       <c r="AJ48" s="23"/>
     </row>
     <row r="49" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="16">
         <v>43</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="F49" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="G49" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="H49" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="I49" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="J49" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I49" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K49" s="42"/>
+      <c r="K49" s="48"/>
       <c r="L49" s="5"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
@@ -6468,38 +7171,38 @@
       <c r="AJ49" s="23"/>
     </row>
     <row r="50" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="31">
+      <c r="A50" s="42">
         <v>22</v>
       </c>
       <c r="B50" s="15">
         <v>44</v>
       </c>
       <c r="C50" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="F50" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="G50" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="H50" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="I50" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="H50" s="21" t="s">
+      <c r="J50" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="K50" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="K50" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="6"/>
@@ -6528,36 +7231,36 @@
       <c r="AJ50" s="23"/>
     </row>
     <row r="51" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="15">
         <v>45</v>
       </c>
       <c r="C51" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="F51" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="G51" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F51" s="21" t="s">
+      <c r="H51" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="I51" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H51" s="21" t="s">
+      <c r="J51" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I51" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J51" s="21" t="s">
-        <v>120</v>
-      </c>
       <c r="K51" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="6"/>
@@ -6586,7 +7289,7 @@
       <c r="AJ51" s="23"/>
     </row>
     <row r="52" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33">
+      <c r="A52" s="50">
         <v>23</v>
       </c>
       <c r="B52" s="16">
@@ -6598,16 +7301,16 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J52" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="I52" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="K52" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="6"/>
@@ -6636,7 +7339,7 @@
       <c r="AJ52" s="23"/>
     </row>
     <row r="53" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="34"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="16">
         <v>47</v>
       </c>
@@ -6676,7 +7379,7 @@
       <c r="AJ53" s="23"/>
     </row>
     <row r="54" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="31">
+      <c r="A54" s="42">
         <v>24</v>
       </c>
       <c r="B54" s="15">
@@ -6690,7 +7393,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K54" s="17"/>
       <c r="L54" s="5"/>
@@ -6720,7 +7423,7 @@
       <c r="AJ54" s="23"/>
     </row>
     <row r="55" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="15">
         <v>49</v>
       </c>
@@ -6730,16 +7433,16 @@
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
       <c r="H55" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J55" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="K55" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="J55" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K55" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="6"/>
@@ -6768,24 +7471,24 @@
       <c r="AJ55" s="23"/>
     </row>
     <row r="56" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33">
+      <c r="A56" s="50">
         <v>25</v>
       </c>
       <c r="B56" s="16">
         <v>50</v>
       </c>
-      <c r="C56" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="41" t="s">
-        <v>139</v>
+      <c r="C56" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="47" t="s">
+        <v>137</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="6"/>
@@ -6814,21 +7517,21 @@
       <c r="AJ56" s="23"/>
     </row>
     <row r="57" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="34"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="16">
         <v>51</v>
       </c>
-      <c r="C57" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="42"/>
+      <c r="C57" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="48"/>
       <c r="L57" s="5"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
@@ -6856,24 +7559,24 @@
       <c r="AJ57" s="23"/>
     </row>
     <row r="58" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="31">
+      <c r="A58" s="42">
         <v>26</v>
       </c>
       <c r="B58" s="15">
         <v>52</v>
       </c>
-      <c r="C58" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="41" t="s">
-        <v>140</v>
+      <c r="C58" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="47" t="s">
+        <v>138</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="6"/>
@@ -6902,21 +7605,21 @@
       <c r="AJ58" s="23"/>
     </row>
     <row r="59" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="15">
         <v>53</v>
       </c>
-      <c r="C59" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="42"/>
+      <c r="C59" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="48"/>
       <c r="L59" s="5"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -6944,24 +7647,24 @@
       <c r="AJ59" s="23"/>
     </row>
     <row r="60" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="33">
+      <c r="A60" s="50">
         <v>27</v>
       </c>
       <c r="B60" s="16">
         <v>54</v>
       </c>
-      <c r="C60" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="41" t="s">
-        <v>141</v>
+      <c r="C60" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="L60" s="5"/>
       <c r="M60" s="6"/>
@@ -6990,21 +7693,21 @@
       <c r="AJ60" s="23"/>
     </row>
     <row r="61" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="34"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="16">
         <v>55</v>
       </c>
-      <c r="C61" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="42"/>
+      <c r="C61" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="48"/>
       <c r="L61" s="5"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
@@ -7032,24 +7735,24 @@
       <c r="AJ61" s="23"/>
     </row>
     <row r="62" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="31">
+      <c r="A62" s="42">
         <v>28</v>
       </c>
       <c r="B62" s="15">
         <v>56</v>
       </c>
-      <c r="C62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="41" t="s">
-        <v>142</v>
+      <c r="C62" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="59"/>
+      <c r="K62" s="47" t="s">
+        <v>140</v>
       </c>
       <c r="L62" s="5"/>
       <c r="M62" s="6"/>
@@ -7078,21 +7781,21 @@
       <c r="AJ62" s="23"/>
     </row>
     <row r="63" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="15">
         <v>57</v>
       </c>
-      <c r="C63" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="57"/>
+      <c r="C63" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="59"/>
+      <c r="K63" s="68"/>
       <c r="L63" s="5"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -7120,23 +7823,23 @@
       <c r="AJ63" s="23"/>
     </row>
     <row r="64" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="33">
+      <c r="A64" s="50">
         <v>29</v>
       </c>
       <c r="B64" s="16">
         <v>58</v>
       </c>
-      <c r="C64" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="57"/>
+      <c r="C64" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="68"/>
       <c r="L64" s="5"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -7164,21 +7867,21 @@
       <c r="AJ64" s="23"/>
     </row>
     <row r="65" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="16">
         <v>59</v>
       </c>
-      <c r="C65" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="42"/>
+      <c r="C65" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="48"/>
       <c r="L65" s="5"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
@@ -7206,7 +7909,7 @@
       <c r="AJ65" s="23"/>
     </row>
     <row r="66" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="31">
+      <c r="A66" s="42">
         <v>30</v>
       </c>
       <c r="B66" s="15">
@@ -7248,7 +7951,7 @@
       <c r="AJ66" s="23"/>
     </row>
     <row r="67" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="15">
         <v>61</v>
       </c>
@@ -7288,7 +7991,7 @@
       <c r="AJ67" s="23"/>
     </row>
     <row r="68" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33">
+      <c r="A68" s="50">
         <v>31</v>
       </c>
       <c r="B68" s="16">
@@ -7330,7 +8033,7 @@
       <c r="AJ68" s="23"/>
     </row>
     <row r="69" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="34"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="16">
         <v>63</v>
       </c>
@@ -7370,24 +8073,24 @@
       <c r="AJ69" s="23"/>
     </row>
     <row r="70" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="31">
+      <c r="A70" s="42">
         <v>32</v>
       </c>
       <c r="B70" s="15">
         <v>64</v>
       </c>
-      <c r="C70" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="64" t="s">
-        <v>143</v>
+      <c r="C70" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="63" t="s">
+        <v>141</v>
       </c>
       <c r="L70" s="5"/>
       <c r="M70" s="6"/>
@@ -7416,21 +8119,21 @@
       <c r="AJ70" s="23"/>
     </row>
     <row r="71" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="15">
         <v>65</v>
       </c>
-      <c r="C71" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="48"/>
-      <c r="K71" s="65"/>
+      <c r="C71" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="64"/>
       <c r="L71" s="5"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
@@ -7458,22 +8161,22 @@
       <c r="AJ71" s="23"/>
     </row>
     <row r="72" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="33">
+      <c r="A72" s="50">
         <v>33</v>
       </c>
       <c r="B72" s="16">
         <v>66</v>
       </c>
-      <c r="C72" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="45"/>
+      <c r="C72" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="54"/>
       <c r="K72" s="17"/>
       <c r="L72" s="5"/>
       <c r="M72" s="6"/>
@@ -7502,7 +8205,7 @@
       <c r="AJ72" s="23"/>
     </row>
     <row r="73" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
+      <c r="A73" s="51"/>
       <c r="B73" s="16">
         <v>67</v>
       </c>
@@ -7542,43 +8245,43 @@
       <c r="AJ73" s="23"/>
     </row>
     <row r="74" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="31">
+      <c r="A74" s="42">
         <v>34</v>
       </c>
       <c r="B74" s="15">
         <v>68</v>
       </c>
-      <c r="C74" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="63"/>
+      <c r="C74" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="71"/>
       <c r="K74" s="17"/>
     </row>
     <row r="75" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="32"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="15">
         <v>69</v>
       </c>
-      <c r="C75" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="63"/>
+      <c r="C75" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="71"/>
       <c r="K75" s="17"/>
       <c r="L75" s="5"/>
       <c r="M75" s="6"/>
@@ -7607,7 +8310,7 @@
       <c r="AJ75" s="23"/>
     </row>
     <row r="76" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="33">
+      <c r="A76" s="50">
         <v>35</v>
       </c>
       <c r="B76" s="16">
@@ -7649,22 +8352,22 @@
       <c r="AJ76" s="23"/>
     </row>
     <row r="77" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="34"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="16">
         <v>71</v>
       </c>
-      <c r="C77" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="41" t="s">
-        <v>84</v>
+      <c r="C77" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="6"/>
@@ -7693,23 +8396,23 @@
       <c r="AJ77" s="23"/>
     </row>
     <row r="78" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="31">
+      <c r="A78" s="42">
         <v>36</v>
       </c>
       <c r="B78" s="15">
         <v>72</v>
       </c>
-      <c r="C78" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="57"/>
+      <c r="C78" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="58"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="68"/>
       <c r="L78" s="5"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
@@ -7737,21 +8440,21 @@
       <c r="AJ78" s="23"/>
     </row>
     <row r="79" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="15">
         <v>73</v>
       </c>
-      <c r="C79" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="42"/>
+      <c r="C79" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="58"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="48"/>
       <c r="L79" s="5"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
@@ -7779,37 +8482,37 @@
       <c r="AJ79" s="23"/>
     </row>
     <row r="80" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="33">
+      <c r="A80" s="50">
         <v>37</v>
       </c>
       <c r="B80" s="16">
         <v>74</v>
       </c>
       <c r="C80" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="F80" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="G80" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="18" t="s">
+      <c r="H80" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="I80" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="J80" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I80" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J80" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="K80" s="41"/>
+      <c r="K80" s="47"/>
       <c r="L80" s="5"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
@@ -7837,35 +8540,35 @@
       <c r="AJ80" s="23"/>
     </row>
     <row r="81" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="34"/>
+      <c r="A81" s="51"/>
       <c r="B81" s="16">
         <v>75</v>
       </c>
       <c r="C81" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="F81" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="G81" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="H81" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="I81" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="J81" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I81" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J81" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K81" s="42"/>
+      <c r="K81" s="48"/>
       <c r="L81" s="5"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
@@ -7893,38 +8596,38 @@
       <c r="AJ81" s="23"/>
     </row>
     <row r="82" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="31">
+      <c r="A82" s="42">
         <v>38</v>
       </c>
       <c r="B82" s="15">
         <v>76</v>
       </c>
       <c r="C82" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="F82" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="G82" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="H82" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G82" s="21" t="s">
+      <c r="I82" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="H82" s="21" t="s">
+      <c r="J82" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I82" s="21" t="s">
+      <c r="K82" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="J82" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="K82" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="L82" s="5"/>
       <c r="M82" s="6"/>
@@ -7953,36 +8656,36 @@
       <c r="AJ82" s="23"/>
     </row>
     <row r="83" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="32"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="15">
         <v>77</v>
       </c>
       <c r="C83" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="F83" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="G83" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="H83" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="I83" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H83" s="21" t="s">
+      <c r="J83" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I83" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J83" s="21" t="s">
-        <v>120</v>
-      </c>
       <c r="K83" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="6"/>
@@ -8011,7 +8714,7 @@
       <c r="AJ83" s="23"/>
     </row>
     <row r="84" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="33">
+      <c r="A84" s="50">
         <v>39</v>
       </c>
       <c r="B84" s="16">
@@ -8023,16 +8726,16 @@
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J84" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="I84" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="J84" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="K84" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="6"/>
@@ -8061,7 +8764,7 @@
       <c r="AJ84" s="23"/>
     </row>
     <row r="85" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="34"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="16">
         <v>79</v>
       </c>
@@ -8101,7 +8804,7 @@
       <c r="AJ85" s="23"/>
     </row>
     <row r="86" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="31">
+      <c r="A86" s="42">
         <v>40</v>
       </c>
       <c r="B86" s="15">
@@ -8115,7 +8818,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K86" s="17"/>
       <c r="L86" s="5"/>
@@ -8145,7 +8848,7 @@
       <c r="AJ86" s="23"/>
     </row>
     <row r="87" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="32"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="15">
         <v>81</v>
       </c>
@@ -8155,16 +8858,16 @@
       <c r="F87" s="25"/>
       <c r="G87" s="25"/>
       <c r="H87" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I87" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J87" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I87" s="21" t="s">
+      <c r="K87" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="J87" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K87" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="6"/>
@@ -8193,24 +8896,24 @@
       <c r="AJ87" s="23"/>
     </row>
     <row r="88" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="33">
+      <c r="A88" s="50">
         <v>41</v>
       </c>
       <c r="B88" s="16">
         <v>82</v>
       </c>
-      <c r="C88" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="41" t="s">
-        <v>145</v>
+      <c r="C88" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="47" t="s">
+        <v>143</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="6"/>
@@ -8239,21 +8942,21 @@
       <c r="AJ88" s="23"/>
     </row>
     <row r="89" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="34"/>
+      <c r="A89" s="51"/>
       <c r="B89" s="16">
         <v>83</v>
       </c>
-      <c r="C89" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="45"/>
-      <c r="K89" s="42"/>
+      <c r="C89" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="48"/>
       <c r="L89" s="5"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
@@ -8281,24 +8984,24 @@
       <c r="AJ89" s="23"/>
     </row>
     <row r="90" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="31">
+      <c r="A90" s="42">
         <v>42</v>
       </c>
       <c r="B90" s="15">
         <v>84</v>
       </c>
-      <c r="C90" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="41" t="s">
-        <v>146</v>
+      <c r="C90" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="58"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="47" t="s">
+        <v>144</v>
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="6"/>
@@ -8327,21 +9030,21 @@
       <c r="AJ90" s="23"/>
     </row>
     <row r="91" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="32"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="15">
         <v>85</v>
       </c>
-      <c r="C91" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="36"/>
-      <c r="E91" s="36"/>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="42"/>
+      <c r="C91" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="48"/>
       <c r="L91" s="5"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
@@ -8369,24 +9072,24 @@
       <c r="AJ91" s="23"/>
     </row>
     <row r="92" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="33">
+      <c r="A92" s="50">
         <v>43</v>
       </c>
       <c r="B92" s="16">
         <v>86</v>
       </c>
-      <c r="C92" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="45"/>
-      <c r="K92" s="41" t="s">
-        <v>147</v>
+      <c r="C92" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
+      <c r="I92" s="53"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="47" t="s">
+        <v>145</v>
       </c>
       <c r="L92" s="5"/>
       <c r="M92" s="6"/>
@@ -8415,21 +9118,21 @@
       <c r="AJ92" s="23"/>
     </row>
     <row r="93" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="34"/>
+      <c r="A93" s="51"/>
       <c r="B93" s="16">
         <v>87</v>
       </c>
-      <c r="C93" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="42"/>
+      <c r="C93" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
+      <c r="I93" s="53"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="48"/>
       <c r="L93" s="5"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
@@ -8457,24 +9160,24 @@
       <c r="AJ93" s="23"/>
     </row>
     <row r="94" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="31">
+      <c r="A94" s="42">
         <v>44</v>
       </c>
       <c r="B94" s="15">
         <v>88</v>
       </c>
-      <c r="C94" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="41" t="s">
-        <v>148</v>
+      <c r="C94" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="47" t="s">
+        <v>146</v>
       </c>
       <c r="L94" s="5"/>
       <c r="M94" s="6"/>
@@ -8503,21 +9206,21 @@
       <c r="AJ94" s="23"/>
     </row>
     <row r="95" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="32"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="15">
         <v>89</v>
       </c>
-      <c r="C95" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="57"/>
+      <c r="C95" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="58"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="68"/>
       <c r="L95" s="5"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
@@ -8545,23 +9248,23 @@
       <c r="AJ95" s="23"/>
     </row>
     <row r="96" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="33">
+      <c r="A96" s="50">
         <v>45</v>
       </c>
       <c r="B96" s="16">
         <v>90</v>
       </c>
-      <c r="C96" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="57"/>
+      <c r="C96" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="68"/>
       <c r="L96" s="5"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
@@ -8589,21 +9292,21 @@
       <c r="AJ96" s="23"/>
     </row>
     <row r="97" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="34"/>
+      <c r="A97" s="51"/>
       <c r="B97" s="16">
         <v>91</v>
       </c>
-      <c r="C97" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="45"/>
-      <c r="K97" s="42"/>
+      <c r="C97" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="48"/>
       <c r="L97" s="5"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
@@ -8631,7 +9334,7 @@
       <c r="AJ97" s="23"/>
     </row>
     <row r="98" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="31">
+      <c r="A98" s="42">
         <v>46</v>
       </c>
       <c r="B98" s="15">
@@ -8673,7 +9376,7 @@
       <c r="AJ98" s="23"/>
     </row>
     <row r="99" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="32"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="15">
         <v>93</v>
       </c>
@@ -8713,7 +9416,7 @@
       <c r="AJ99" s="23"/>
     </row>
     <row r="100" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="33">
+      <c r="A100" s="50">
         <v>47</v>
       </c>
       <c r="B100" s="16">
@@ -8755,7 +9458,7 @@
       <c r="AJ100" s="23"/>
     </row>
     <row r="101" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="34"/>
+      <c r="A101" s="51"/>
       <c r="B101" s="16">
         <v>95</v>
       </c>
@@ -8795,24 +9498,24 @@
       <c r="AJ101" s="23"/>
     </row>
     <row r="102" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="31">
+      <c r="A102" s="42">
         <v>48</v>
       </c>
       <c r="B102" s="15">
         <v>96</v>
       </c>
-      <c r="C102" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="48"/>
-      <c r="K102" s="64" t="s">
-        <v>149</v>
+      <c r="C102" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="46"/>
+      <c r="K102" s="63" t="s">
+        <v>147</v>
       </c>
       <c r="L102" s="5"/>
       <c r="M102" s="6"/>
@@ -8841,21 +9544,21 @@
       <c r="AJ102" s="23"/>
     </row>
     <row r="103" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="32"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="15">
         <v>97</v>
       </c>
-      <c r="C103" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
-      <c r="I103" s="47"/>
-      <c r="J103" s="48"/>
-      <c r="K103" s="65"/>
+      <c r="C103" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="64"/>
       <c r="L103" s="5"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
@@ -8883,20 +9586,20 @@
       <c r="AJ103" s="23"/>
     </row>
     <row r="104" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="33">
+      <c r="A104" s="50">
         <v>49</v>
       </c>
       <c r="B104" s="16">
         <v>98</v>
       </c>
-      <c r="C104" s="43"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="45"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="53"/>
+      <c r="J104" s="54"/>
       <c r="K104" s="17"/>
       <c r="L104" s="5"/>
       <c r="M104" s="6"/>
@@ -8925,7 +9628,7 @@
       <c r="AJ104" s="23"/>
     </row>
     <row r="105" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="34"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="16">
         <v>99</v>
       </c>
@@ -8965,24 +9668,24 @@
       <c r="AJ105" s="23"/>
     </row>
     <row r="106" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="31">
+      <c r="A106" s="42">
         <v>50</v>
       </c>
       <c r="B106" s="15">
         <v>100</v>
       </c>
-      <c r="C106" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D106" s="62"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="63"/>
-      <c r="G106" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H106" s="62"/>
-      <c r="I106" s="62"/>
-      <c r="J106" s="63"/>
+      <c r="C106" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D106" s="70"/>
+      <c r="E106" s="70"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H106" s="70"/>
+      <c r="I106" s="70"/>
+      <c r="J106" s="71"/>
       <c r="K106" s="17"/>
       <c r="L106" s="5"/>
       <c r="M106" s="6"/>
@@ -9011,22 +9714,22 @@
       <c r="AJ106" s="23"/>
     </row>
     <row r="107" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="32"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="15">
         <v>101</v>
       </c>
-      <c r="C107" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D107" s="62"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="63"/>
-      <c r="G107" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="H107" s="62"/>
-      <c r="I107" s="62"/>
-      <c r="J107" s="63"/>
+      <c r="C107" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="70"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H107" s="70"/>
+      <c r="I107" s="70"/>
+      <c r="J107" s="71"/>
       <c r="K107" s="17"/>
       <c r="L107" s="5"/>
       <c r="M107" s="6"/>
@@ -9055,7 +9758,7 @@
       <c r="AJ107" s="23"/>
     </row>
     <row r="108" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="33">
+      <c r="A108" s="50">
         <v>51</v>
       </c>
       <c r="B108" s="16">
@@ -9097,22 +9800,22 @@
       <c r="AJ108" s="23"/>
     </row>
     <row r="109" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="34"/>
+      <c r="A109" s="51"/>
       <c r="B109" s="16">
         <v>103</v>
       </c>
-      <c r="C109" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D109" s="59"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="59"/>
-      <c r="J109" s="60"/>
-      <c r="K109" s="41" t="s">
-        <v>84</v>
+      <c r="C109" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="66"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="L109" s="5"/>
       <c r="M109" s="6"/>
@@ -9141,23 +9844,23 @@
       <c r="AJ109" s="23"/>
     </row>
     <row r="110" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="31">
+      <c r="A110" s="42">
         <v>52</v>
       </c>
       <c r="B110" s="15">
         <v>104</v>
       </c>
-      <c r="C110" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="57"/>
+      <c r="C110" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="58"/>
+      <c r="J110" s="59"/>
+      <c r="K110" s="68"/>
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
@@ -9185,21 +9888,21 @@
       <c r="AJ110" s="23"/>
     </row>
     <row r="111" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="32"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="15">
         <v>105</v>
       </c>
-      <c r="C111" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="42"/>
+      <c r="C111" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" s="58"/>
+      <c r="E111" s="58"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="58"/>
+      <c r="I111" s="58"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="48"/>
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
@@ -9227,38 +9930,38 @@
       <c r="AJ111" s="23"/>
     </row>
     <row r="112" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="33">
+      <c r="A112" s="50">
         <v>53</v>
       </c>
       <c r="B112" s="16">
         <v>106</v>
       </c>
       <c r="C112" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E112" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="F112" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="G112" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F112" s="18" t="s">
+      <c r="H112" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G112" s="18" t="s">
+      <c r="I112" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H112" s="18" t="s">
+      <c r="J112" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I112" s="18" t="s">
+      <c r="K112" s="47" t="s">
         <v>93</v>
-      </c>
-      <c r="J112" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="K112" s="41" t="s">
-        <v>95</v>
       </c>
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
@@ -9287,35 +9990,35 @@
       <c r="AJ112" s="23"/>
     </row>
     <row r="113" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="34"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="16">
         <v>107</v>
       </c>
       <c r="C113" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E113" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="F113" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="G113" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F113" s="18" t="s">
+      <c r="H113" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G113" s="18" t="s">
+      <c r="I113" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H113" s="18" t="s">
+      <c r="J113" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I113" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J113" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K113" s="42"/>
+      <c r="K113" s="48"/>
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
@@ -9343,38 +10046,38 @@
       <c r="AJ113" s="23"/>
     </row>
     <row r="114" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="31">
+      <c r="A114" s="42">
         <v>54</v>
       </c>
       <c r="B114" s="15">
         <v>108</v>
       </c>
       <c r="C114" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E114" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="21" t="s">
+      <c r="F114" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E114" s="21" t="s">
+      <c r="G114" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F114" s="21" t="s">
+      <c r="H114" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G114" s="21" t="s">
+      <c r="I114" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="H114" s="21" t="s">
+      <c r="J114" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I114" s="21" t="s">
+      <c r="K114" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="J114" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="K114" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
@@ -9403,36 +10106,36 @@
       <c r="AJ114" s="23"/>
     </row>
     <row r="115" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="32"/>
+      <c r="A115" s="56"/>
       <c r="B115" s="15">
         <v>109</v>
       </c>
       <c r="C115" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D115" s="21" t="s">
+      <c r="F115" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E115" s="21" t="s">
+      <c r="G115" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F115" s="21" t="s">
+      <c r="H115" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G115" s="21" t="s">
+      <c r="I115" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H115" s="21" t="s">
+      <c r="J115" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I115" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J115" s="21" t="s">
-        <v>120</v>
-      </c>
       <c r="K115" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
@@ -9461,7 +10164,7 @@
       <c r="AJ115" s="23"/>
     </row>
     <row r="116" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="33">
+      <c r="A116" s="50">
         <v>55</v>
       </c>
       <c r="B116" s="16">
@@ -9473,16 +10176,16 @@
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
       <c r="H116" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I116" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J116" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="I116" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="J116" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="K116" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
@@ -9511,7 +10214,7 @@
       <c r="AJ116" s="23"/>
     </row>
     <row r="117" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="34"/>
+      <c r="A117" s="51"/>
       <c r="B117" s="16">
         <v>111</v>
       </c>
@@ -9551,7 +10254,7 @@
       <c r="AJ117" s="23"/>
     </row>
     <row r="118" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="31">
+      <c r="A118" s="42">
         <v>56</v>
       </c>
       <c r="B118" s="15">
@@ -9565,7 +10268,7 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K118" s="17"/>
       <c r="L118" s="5"/>
@@ -9595,7 +10298,7 @@
       <c r="AJ118" s="23"/>
     </row>
     <row r="119" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="32"/>
+      <c r="A119" s="56"/>
       <c r="B119" s="15">
         <v>113</v>
       </c>
@@ -9605,16 +10308,16 @@
       <c r="F119" s="25"/>
       <c r="G119" s="25"/>
       <c r="H119" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I119" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J119" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I119" s="21" t="s">
+      <c r="K119" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="J119" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K119" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
@@ -9643,24 +10346,24 @@
       <c r="AJ119" s="23"/>
     </row>
     <row r="120" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="33">
+      <c r="A120" s="50">
         <v>57</v>
       </c>
       <c r="B120" s="16">
         <v>114</v>
       </c>
-      <c r="C120" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D120" s="44"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="44"/>
-      <c r="I120" s="44"/>
-      <c r="J120" s="45"/>
-      <c r="K120" s="41" t="s">
-        <v>150</v>
+      <c r="C120" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120" s="53"/>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="53"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="47" t="s">
+        <v>148</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
@@ -9689,21 +10392,21 @@
       <c r="AJ120" s="23"/>
     </row>
     <row r="121" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="34"/>
+      <c r="A121" s="51"/>
       <c r="B121" s="16">
         <v>115</v>
       </c>
-      <c r="C121" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="44"/>
-      <c r="I121" s="44"/>
-      <c r="J121" s="45"/>
-      <c r="K121" s="42"/>
+      <c r="C121" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="53"/>
+      <c r="E121" s="53"/>
+      <c r="F121" s="53"/>
+      <c r="G121" s="53"/>
+      <c r="H121" s="53"/>
+      <c r="I121" s="53"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="48"/>
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
@@ -9731,24 +10434,24 @@
       <c r="AJ121" s="23"/>
     </row>
     <row r="122" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="31">
+      <c r="A122" s="42">
         <v>58</v>
       </c>
       <c r="B122" s="15">
         <v>116</v>
       </c>
-      <c r="C122" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="36"/>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="37"/>
-      <c r="K122" s="41" t="s">
-        <v>151</v>
+      <c r="C122" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D122" s="58"/>
+      <c r="E122" s="58"/>
+      <c r="F122" s="58"/>
+      <c r="G122" s="58"/>
+      <c r="H122" s="58"/>
+      <c r="I122" s="58"/>
+      <c r="J122" s="59"/>
+      <c r="K122" s="47" t="s">
+        <v>149</v>
       </c>
       <c r="L122" s="5"/>
       <c r="M122" s="6"/>
@@ -9777,21 +10480,21 @@
       <c r="AJ122" s="23"/>
     </row>
     <row r="123" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="32"/>
+      <c r="A123" s="56"/>
       <c r="B123" s="15">
         <v>117</v>
       </c>
-      <c r="C123" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D123" s="36"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="36"/>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="42"/>
+      <c r="C123" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" s="58"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="58"/>
+      <c r="G123" s="58"/>
+      <c r="H123" s="58"/>
+      <c r="I123" s="58"/>
+      <c r="J123" s="59"/>
+      <c r="K123" s="48"/>
       <c r="L123" s="5"/>
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
@@ -9819,24 +10522,24 @@
       <c r="AJ123" s="23"/>
     </row>
     <row r="124" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="33">
+      <c r="A124" s="50">
         <v>59</v>
       </c>
       <c r="B124" s="16">
         <v>118</v>
       </c>
-      <c r="C124" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="45"/>
-      <c r="K124" s="41" t="s">
-        <v>152</v>
+      <c r="C124" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" s="53"/>
+      <c r="E124" s="53"/>
+      <c r="F124" s="53"/>
+      <c r="G124" s="53"/>
+      <c r="H124" s="53"/>
+      <c r="I124" s="53"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="47" t="s">
+        <v>150</v>
       </c>
       <c r="L124" s="5"/>
       <c r="M124" s="6"/>
@@ -9865,21 +10568,21 @@
       <c r="AJ124" s="23"/>
     </row>
     <row r="125" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="34"/>
+      <c r="A125" s="51"/>
       <c r="B125" s="16">
         <v>119</v>
       </c>
-      <c r="C125" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="44"/>
-      <c r="I125" s="44"/>
-      <c r="J125" s="45"/>
-      <c r="K125" s="42"/>
+      <c r="C125" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" s="53"/>
+      <c r="E125" s="53"/>
+      <c r="F125" s="53"/>
+      <c r="G125" s="53"/>
+      <c r="H125" s="53"/>
+      <c r="I125" s="53"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="48"/>
       <c r="L125" s="5"/>
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
@@ -9907,24 +10610,24 @@
       <c r="AJ125" s="23"/>
     </row>
     <row r="126" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="31">
+      <c r="A126" s="42">
         <v>60</v>
       </c>
       <c r="B126" s="15">
         <v>120</v>
       </c>
-      <c r="C126" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="41" t="s">
-        <v>153</v>
+      <c r="C126" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" s="58"/>
+      <c r="E126" s="58"/>
+      <c r="F126" s="58"/>
+      <c r="G126" s="58"/>
+      <c r="H126" s="58"/>
+      <c r="I126" s="58"/>
+      <c r="J126" s="59"/>
+      <c r="K126" s="47" t="s">
+        <v>151</v>
       </c>
       <c r="L126" s="5"/>
       <c r="M126" s="6"/>
@@ -9953,21 +10656,21 @@
       <c r="AJ126" s="23"/>
     </row>
     <row r="127" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="32"/>
+      <c r="A127" s="56"/>
       <c r="B127" s="15">
         <v>121</v>
       </c>
-      <c r="C127" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D127" s="36"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="36"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="57"/>
+      <c r="C127" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="58"/>
+      <c r="I127" s="58"/>
+      <c r="J127" s="59"/>
+      <c r="K127" s="68"/>
       <c r="L127" s="5"/>
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
@@ -9995,23 +10698,23 @@
       <c r="AJ127" s="23"/>
     </row>
     <row r="128" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="33">
+      <c r="A128" s="50">
         <v>61</v>
       </c>
       <c r="B128" s="16">
         <v>122</v>
       </c>
-      <c r="C128" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="44"/>
-      <c r="I128" s="44"/>
-      <c r="J128" s="45"/>
-      <c r="K128" s="57"/>
+      <c r="C128" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
+      <c r="H128" s="53"/>
+      <c r="I128" s="53"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="68"/>
       <c r="L128" s="5"/>
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
@@ -10039,21 +10742,21 @@
       <c r="AJ128" s="23"/>
     </row>
     <row r="129" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="34"/>
+      <c r="A129" s="51"/>
       <c r="B129" s="16">
         <v>123</v>
       </c>
-      <c r="C129" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D129" s="44"/>
-      <c r="E129" s="44"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="44"/>
-      <c r="I129" s="44"/>
-      <c r="J129" s="45"/>
-      <c r="K129" s="42"/>
+      <c r="C129" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" s="53"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+      <c r="G129" s="53"/>
+      <c r="H129" s="53"/>
+      <c r="I129" s="53"/>
+      <c r="J129" s="54"/>
+      <c r="K129" s="48"/>
       <c r="L129" s="5"/>
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
@@ -10081,7 +10784,7 @@
       <c r="AJ129" s="23"/>
     </row>
     <row r="130" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="31">
+      <c r="A130" s="42">
         <v>62</v>
       </c>
       <c r="B130" s="15">
@@ -10123,7 +10826,7 @@
       <c r="AJ130" s="23"/>
     </row>
     <row r="131" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="32"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="15">
         <v>125</v>
       </c>
@@ -10163,7 +10866,7 @@
       <c r="AJ131" s="23"/>
     </row>
     <row r="132" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="33">
+      <c r="A132" s="50">
         <v>63</v>
       </c>
       <c r="B132" s="16">
@@ -10205,7 +10908,7 @@
       <c r="AJ132" s="23"/>
     </row>
     <row r="133" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="34"/>
+      <c r="A133" s="51"/>
       <c r="B133" s="16">
         <v>127</v>
       </c>
@@ -10245,24 +10948,24 @@
       <c r="AJ133" s="23"/>
     </row>
     <row r="134" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="31">
+      <c r="A134" s="42">
         <v>64</v>
       </c>
       <c r="B134" s="15">
         <v>128</v>
       </c>
-      <c r="C134" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D134" s="47"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="47"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="48"/>
-      <c r="K134" s="64" t="s">
-        <v>154</v>
+      <c r="C134" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="45"/>
+      <c r="I134" s="45"/>
+      <c r="J134" s="46"/>
+      <c r="K134" s="63" t="s">
+        <v>152</v>
       </c>
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
@@ -10291,21 +10994,21 @@
       <c r="AJ134" s="23"/>
     </row>
     <row r="135" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="32"/>
+      <c r="A135" s="56"/>
       <c r="B135" s="15">
         <v>129</v>
       </c>
-      <c r="C135" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D135" s="47"/>
-      <c r="E135" s="47"/>
-      <c r="F135" s="47"/>
-      <c r="G135" s="47"/>
-      <c r="H135" s="47"/>
-      <c r="I135" s="47"/>
-      <c r="J135" s="48"/>
-      <c r="K135" s="65"/>
+      <c r="C135" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="45"/>
+      <c r="I135" s="45"/>
+      <c r="J135" s="46"/>
+      <c r="K135" s="64"/>
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
@@ -10333,20 +11036,20 @@
       <c r="AJ135" s="23"/>
     </row>
     <row r="136" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="33">
+      <c r="A136" s="50">
         <v>65</v>
       </c>
       <c r="B136" s="16">
         <v>130</v>
       </c>
-      <c r="C136" s="43"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="44"/>
-      <c r="I136" s="44"/>
-      <c r="J136" s="45"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="53"/>
+      <c r="F136" s="53"/>
+      <c r="G136" s="53"/>
+      <c r="H136" s="53"/>
+      <c r="I136" s="53"/>
+      <c r="J136" s="54"/>
       <c r="K136" s="17"/>
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
@@ -10375,7 +11078,7 @@
       <c r="AJ136" s="23"/>
     </row>
     <row r="137" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="34"/>
+      <c r="A137" s="51"/>
       <c r="B137" s="16">
         <v>131</v>
       </c>
@@ -10415,24 +11118,24 @@
       <c r="AJ137" s="23"/>
     </row>
     <row r="138" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="31">
+      <c r="A138" s="42">
         <v>66</v>
       </c>
       <c r="B138" s="15">
         <v>132</v>
       </c>
-      <c r="C138" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D138" s="62"/>
-      <c r="E138" s="62"/>
-      <c r="F138" s="63"/>
-      <c r="G138" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H138" s="62"/>
-      <c r="I138" s="62"/>
-      <c r="J138" s="63"/>
+      <c r="C138" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D138" s="70"/>
+      <c r="E138" s="70"/>
+      <c r="F138" s="71"/>
+      <c r="G138" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H138" s="70"/>
+      <c r="I138" s="70"/>
+      <c r="J138" s="71"/>
       <c r="K138" s="17"/>
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
@@ -10461,22 +11164,22 @@
       <c r="AJ138" s="23"/>
     </row>
     <row r="139" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="32"/>
+      <c r="A139" s="56"/>
       <c r="B139" s="15">
         <v>133</v>
       </c>
-      <c r="C139" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D139" s="62"/>
-      <c r="E139" s="62"/>
-      <c r="F139" s="63"/>
-      <c r="G139" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="H139" s="62"/>
-      <c r="I139" s="62"/>
-      <c r="J139" s="63"/>
+      <c r="C139" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H139" s="70"/>
+      <c r="I139" s="70"/>
+      <c r="J139" s="71"/>
       <c r="K139" s="17"/>
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
@@ -10505,7 +11208,7 @@
       <c r="AJ139" s="23"/>
     </row>
     <row r="140" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="33">
+      <c r="A140" s="50">
         <v>67</v>
       </c>
       <c r="B140" s="16">
@@ -10547,22 +11250,22 @@
       <c r="AJ140" s="23"/>
     </row>
     <row r="141" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="34"/>
+      <c r="A141" s="51"/>
       <c r="B141" s="16">
         <v>135</v>
       </c>
-      <c r="C141" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D141" s="59"/>
-      <c r="E141" s="59"/>
-      <c r="F141" s="59"/>
-      <c r="G141" s="59"/>
-      <c r="H141" s="59"/>
-      <c r="I141" s="59"/>
-      <c r="J141" s="60"/>
-      <c r="K141" s="41" t="s">
-        <v>84</v>
+      <c r="C141" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D141" s="66"/>
+      <c r="E141" s="66"/>
+      <c r="F141" s="66"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="66"/>
+      <c r="I141" s="66"/>
+      <c r="J141" s="67"/>
+      <c r="K141" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
@@ -10591,23 +11294,23 @@
       <c r="AJ141" s="23"/>
     </row>
     <row r="142" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="31">
+      <c r="A142" s="42">
         <v>68</v>
       </c>
       <c r="B142" s="15">
         <v>136</v>
       </c>
-      <c r="C142" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D142" s="36"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="36"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="36"/>
-      <c r="J142" s="37"/>
-      <c r="K142" s="57"/>
+      <c r="C142" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D142" s="58"/>
+      <c r="E142" s="58"/>
+      <c r="F142" s="58"/>
+      <c r="G142" s="58"/>
+      <c r="H142" s="58"/>
+      <c r="I142" s="58"/>
+      <c r="J142" s="59"/>
+      <c r="K142" s="68"/>
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="6"/>
@@ -10635,21 +11338,21 @@
       <c r="AJ142" s="23"/>
     </row>
     <row r="143" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="32"/>
+      <c r="A143" s="56"/>
       <c r="B143" s="15">
         <v>137</v>
       </c>
-      <c r="C143" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D143" s="36"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="36"/>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="36"/>
-      <c r="J143" s="37"/>
-      <c r="K143" s="42"/>
+      <c r="C143" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D143" s="58"/>
+      <c r="E143" s="58"/>
+      <c r="F143" s="58"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="58"/>
+      <c r="I143" s="58"/>
+      <c r="J143" s="59"/>
+      <c r="K143" s="48"/>
       <c r="L143" s="5"/>
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
@@ -10677,38 +11380,38 @@
       <c r="AJ143" s="23"/>
     </row>
     <row r="144" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="33">
+      <c r="A144" s="50">
         <v>69</v>
       </c>
       <c r="B144" s="16">
         <v>138</v>
       </c>
       <c r="C144" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E144" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="F144" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E144" s="18" t="s">
+      <c r="G144" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F144" s="18" t="s">
+      <c r="H144" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G144" s="18" t="s">
+      <c r="I144" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H144" s="18" t="s">
+      <c r="J144" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I144" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J144" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="K144" s="41" t="s">
-        <v>138</v>
+      <c r="K144" s="47" t="s">
+        <v>136</v>
       </c>
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
@@ -10737,35 +11440,35 @@
       <c r="AJ144" s="23"/>
     </row>
     <row r="145" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="34"/>
+      <c r="A145" s="51"/>
       <c r="B145" s="16">
         <v>139</v>
       </c>
       <c r="C145" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E145" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="F145" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E145" s="18" t="s">
+      <c r="G145" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F145" s="18" t="s">
+      <c r="H145" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G145" s="18" t="s">
+      <c r="I145" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H145" s="18" t="s">
+      <c r="J145" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I145" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J145" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K145" s="42"/>
+      <c r="K145" s="48"/>
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
@@ -10793,38 +11496,38 @@
       <c r="AJ145" s="23"/>
     </row>
     <row r="146" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="31">
+      <c r="A146" s="42">
         <v>70</v>
       </c>
       <c r="B146" s="15">
         <v>140</v>
       </c>
       <c r="C146" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E146" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D146" s="21" t="s">
+      <c r="F146" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E146" s="21" t="s">
+      <c r="G146" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F146" s="21" t="s">
+      <c r="H146" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G146" s="21" t="s">
+      <c r="I146" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="H146" s="21" t="s">
+      <c r="J146" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I146" s="21" t="s">
+      <c r="K146" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="J146" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="K146" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="L146" s="5"/>
       <c r="M146" s="6"/>
@@ -10853,36 +11556,36 @@
       <c r="AJ146" s="23"/>
     </row>
     <row r="147" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="32"/>
+      <c r="A147" s="56"/>
       <c r="B147" s="15">
         <v>141</v>
       </c>
       <c r="C147" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E147" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D147" s="21" t="s">
+      <c r="F147" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="G147" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F147" s="21" t="s">
+      <c r="H147" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G147" s="21" t="s">
+      <c r="I147" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H147" s="21" t="s">
+      <c r="J147" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I147" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J147" s="21" t="s">
-        <v>120</v>
-      </c>
       <c r="K147" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L147" s="5"/>
       <c r="M147" s="6"/>
@@ -10911,7 +11614,7 @@
       <c r="AJ147" s="23"/>
     </row>
     <row r="148" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="33">
+      <c r="A148" s="50">
         <v>71</v>
       </c>
       <c r="B148" s="16">
@@ -10923,16 +11626,16 @@
       <c r="F148" s="17"/>
       <c r="G148" s="17"/>
       <c r="H148" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I148" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J148" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="I148" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="J148" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="K148" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L148" s="5"/>
       <c r="M148" s="6"/>
@@ -10961,7 +11664,7 @@
       <c r="AJ148" s="23"/>
     </row>
     <row r="149" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="34"/>
+      <c r="A149" s="51"/>
       <c r="B149" s="16">
         <v>143</v>
       </c>
@@ -11001,7 +11704,7 @@
       <c r="AJ149" s="23"/>
     </row>
     <row r="150" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="31">
+      <c r="A150" s="42">
         <v>72</v>
       </c>
       <c r="B150" s="15">
@@ -11015,7 +11718,7 @@
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
       <c r="J150" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K150" s="17"/>
       <c r="L150" s="5"/>
@@ -11045,7 +11748,7 @@
       <c r="AJ150" s="23"/>
     </row>
     <row r="151" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="32"/>
+      <c r="A151" s="56"/>
       <c r="B151" s="15">
         <v>145</v>
       </c>
@@ -11055,16 +11758,16 @@
       <c r="F151" s="25"/>
       <c r="G151" s="25"/>
       <c r="H151" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I151" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J151" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I151" s="21" t="s">
+      <c r="K151" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="J151" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K151" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="L151" s="5"/>
       <c r="M151" s="6"/>
@@ -11093,24 +11796,24 @@
       <c r="AJ151" s="23"/>
     </row>
     <row r="152" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="33">
+      <c r="A152" s="50">
         <v>73</v>
       </c>
       <c r="B152" s="16">
         <v>146</v>
       </c>
-      <c r="C152" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D152" s="44"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="44"/>
-      <c r="I152" s="44"/>
-      <c r="J152" s="45"/>
-      <c r="K152" s="41" t="s">
-        <v>155</v>
+      <c r="C152" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D152" s="53"/>
+      <c r="E152" s="53"/>
+      <c r="F152" s="53"/>
+      <c r="G152" s="53"/>
+      <c r="H152" s="53"/>
+      <c r="I152" s="53"/>
+      <c r="J152" s="54"/>
+      <c r="K152" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="L152" s="5"/>
       <c r="M152" s="6"/>
@@ -11139,21 +11842,21 @@
       <c r="AJ152" s="23"/>
     </row>
     <row r="153" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="34"/>
+      <c r="A153" s="51"/>
       <c r="B153" s="16">
         <v>147</v>
       </c>
-      <c r="C153" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D153" s="44"/>
-      <c r="E153" s="44"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="44"/>
-      <c r="I153" s="44"/>
-      <c r="J153" s="45"/>
-      <c r="K153" s="42"/>
+      <c r="C153" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D153" s="53"/>
+      <c r="E153" s="53"/>
+      <c r="F153" s="53"/>
+      <c r="G153" s="53"/>
+      <c r="H153" s="53"/>
+      <c r="I153" s="53"/>
+      <c r="J153" s="54"/>
+      <c r="K153" s="48"/>
       <c r="L153" s="5"/>
       <c r="M153" s="6"/>
       <c r="N153" s="6"/>
@@ -11181,24 +11884,24 @@
       <c r="AJ153" s="23"/>
     </row>
     <row r="154" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="31">
+      <c r="A154" s="42">
         <v>74</v>
       </c>
       <c r="B154" s="15">
         <v>148</v>
       </c>
-      <c r="C154" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D154" s="36"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="36"/>
-      <c r="G154" s="36"/>
-      <c r="H154" s="36"/>
-      <c r="I154" s="36"/>
-      <c r="J154" s="37"/>
-      <c r="K154" s="41" t="s">
-        <v>156</v>
+      <c r="C154" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D154" s="58"/>
+      <c r="E154" s="58"/>
+      <c r="F154" s="58"/>
+      <c r="G154" s="58"/>
+      <c r="H154" s="58"/>
+      <c r="I154" s="58"/>
+      <c r="J154" s="59"/>
+      <c r="K154" s="47" t="s">
+        <v>154</v>
       </c>
       <c r="L154" s="5"/>
       <c r="M154" s="6"/>
@@ -11227,21 +11930,21 @@
       <c r="AJ154" s="23"/>
     </row>
     <row r="155" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="32"/>
+      <c r="A155" s="56"/>
       <c r="B155" s="15">
         <v>149</v>
       </c>
-      <c r="C155" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D155" s="36"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="36"/>
-      <c r="G155" s="36"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="36"/>
-      <c r="J155" s="37"/>
-      <c r="K155" s="42"/>
+      <c r="C155" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D155" s="58"/>
+      <c r="E155" s="58"/>
+      <c r="F155" s="58"/>
+      <c r="G155" s="58"/>
+      <c r="H155" s="58"/>
+      <c r="I155" s="58"/>
+      <c r="J155" s="59"/>
+      <c r="K155" s="48"/>
       <c r="L155" s="5"/>
       <c r="M155" s="6"/>
       <c r="N155" s="6"/>
@@ -11269,24 +11972,24 @@
       <c r="AJ155" s="23"/>
     </row>
     <row r="156" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="33">
+      <c r="A156" s="50">
         <v>75</v>
       </c>
       <c r="B156" s="16">
         <v>150</v>
       </c>
-      <c r="C156" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D156" s="44"/>
-      <c r="E156" s="44"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="44"/>
-      <c r="I156" s="44"/>
-      <c r="J156" s="45"/>
-      <c r="K156" s="41" t="s">
-        <v>157</v>
+      <c r="C156" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D156" s="53"/>
+      <c r="E156" s="53"/>
+      <c r="F156" s="53"/>
+      <c r="G156" s="53"/>
+      <c r="H156" s="53"/>
+      <c r="I156" s="53"/>
+      <c r="J156" s="54"/>
+      <c r="K156" s="47" t="s">
+        <v>155</v>
       </c>
       <c r="L156" s="5"/>
       <c r="M156" s="6"/>
@@ -11315,21 +12018,21 @@
       <c r="AJ156" s="23"/>
     </row>
     <row r="157" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="34"/>
+      <c r="A157" s="51"/>
       <c r="B157" s="16">
         <v>151</v>
       </c>
-      <c r="C157" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D157" s="44"/>
-      <c r="E157" s="44"/>
-      <c r="F157" s="44"/>
-      <c r="G157" s="44"/>
-      <c r="H157" s="44"/>
-      <c r="I157" s="44"/>
-      <c r="J157" s="45"/>
-      <c r="K157" s="42"/>
+      <c r="C157" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D157" s="53"/>
+      <c r="E157" s="53"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="53"/>
+      <c r="H157" s="53"/>
+      <c r="I157" s="53"/>
+      <c r="J157" s="54"/>
+      <c r="K157" s="48"/>
       <c r="L157" s="5"/>
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
@@ -11357,24 +12060,24 @@
       <c r="AJ157" s="23"/>
     </row>
     <row r="158" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="31">
+      <c r="A158" s="42">
         <v>76</v>
       </c>
       <c r="B158" s="15">
         <v>152</v>
       </c>
-      <c r="C158" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D158" s="36"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="36"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="36"/>
-      <c r="J158" s="37"/>
-      <c r="K158" s="41" t="s">
-        <v>158</v>
+      <c r="C158" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D158" s="58"/>
+      <c r="E158" s="58"/>
+      <c r="F158" s="58"/>
+      <c r="G158" s="58"/>
+      <c r="H158" s="58"/>
+      <c r="I158" s="58"/>
+      <c r="J158" s="59"/>
+      <c r="K158" s="47" t="s">
+        <v>156</v>
       </c>
       <c r="L158" s="5"/>
       <c r="M158" s="6"/>
@@ -11403,21 +12106,21 @@
       <c r="AJ158" s="23"/>
     </row>
     <row r="159" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="32"/>
+      <c r="A159" s="56"/>
       <c r="B159" s="15">
         <v>153</v>
       </c>
-      <c r="C159" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D159" s="36"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="36"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
-      <c r="I159" s="36"/>
-      <c r="J159" s="37"/>
-      <c r="K159" s="57"/>
+      <c r="C159" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D159" s="58"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="58"/>
+      <c r="G159" s="58"/>
+      <c r="H159" s="58"/>
+      <c r="I159" s="58"/>
+      <c r="J159" s="59"/>
+      <c r="K159" s="68"/>
       <c r="L159" s="5"/>
       <c r="M159" s="6"/>
       <c r="N159" s="6"/>
@@ -11445,23 +12148,23 @@
       <c r="AJ159" s="23"/>
     </row>
     <row r="160" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="33">
+      <c r="A160" s="50">
         <v>77</v>
       </c>
       <c r="B160" s="16">
         <v>154</v>
       </c>
-      <c r="C160" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D160" s="44"/>
-      <c r="E160" s="44"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="44"/>
-      <c r="I160" s="44"/>
-      <c r="J160" s="45"/>
-      <c r="K160" s="57"/>
+      <c r="C160" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D160" s="53"/>
+      <c r="E160" s="53"/>
+      <c r="F160" s="53"/>
+      <c r="G160" s="53"/>
+      <c r="H160" s="53"/>
+      <c r="I160" s="53"/>
+      <c r="J160" s="54"/>
+      <c r="K160" s="68"/>
       <c r="L160" s="5"/>
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
@@ -11489,21 +12192,21 @@
       <c r="AJ160" s="23"/>
     </row>
     <row r="161" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="34"/>
+      <c r="A161" s="51"/>
       <c r="B161" s="16">
         <v>155</v>
       </c>
-      <c r="C161" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D161" s="44"/>
-      <c r="E161" s="44"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="44"/>
-      <c r="I161" s="44"/>
-      <c r="J161" s="45"/>
-      <c r="K161" s="42"/>
+      <c r="C161" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D161" s="53"/>
+      <c r="E161" s="53"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="53"/>
+      <c r="H161" s="53"/>
+      <c r="I161" s="53"/>
+      <c r="J161" s="54"/>
+      <c r="K161" s="48"/>
       <c r="L161" s="5"/>
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
@@ -11531,7 +12234,7 @@
       <c r="AJ161" s="23"/>
     </row>
     <row r="162" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="31">
+      <c r="A162" s="42">
         <v>78</v>
       </c>
       <c r="B162" s="15">
@@ -11573,7 +12276,7 @@
       <c r="AJ162" s="23"/>
     </row>
     <row r="163" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="32"/>
+      <c r="A163" s="56"/>
       <c r="B163" s="15">
         <v>157</v>
       </c>
@@ -11613,7 +12316,7 @@
       <c r="AJ163" s="23"/>
     </row>
     <row r="164" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="33">
+      <c r="A164" s="50">
         <v>79</v>
       </c>
       <c r="B164" s="16">
@@ -11655,7 +12358,7 @@
       <c r="AJ164" s="23"/>
     </row>
     <row r="165" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="34"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="16">
         <v>159</v>
       </c>
@@ -11695,24 +12398,24 @@
       <c r="AJ165" s="23"/>
     </row>
     <row r="166" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="31">
+      <c r="A166" s="42">
         <v>80</v>
       </c>
       <c r="B166" s="15">
         <v>160</v>
       </c>
-      <c r="C166" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D166" s="47"/>
-      <c r="E166" s="47"/>
-      <c r="F166" s="47"/>
-      <c r="G166" s="47"/>
-      <c r="H166" s="47"/>
-      <c r="I166" s="47"/>
-      <c r="J166" s="48"/>
-      <c r="K166" s="64" t="s">
-        <v>159</v>
+      <c r="C166" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D166" s="45"/>
+      <c r="E166" s="45"/>
+      <c r="F166" s="45"/>
+      <c r="G166" s="45"/>
+      <c r="H166" s="45"/>
+      <c r="I166" s="45"/>
+      <c r="J166" s="46"/>
+      <c r="K166" s="63" t="s">
+        <v>157</v>
       </c>
       <c r="L166" s="5"/>
       <c r="M166" s="6"/>
@@ -11741,21 +12444,21 @@
       <c r="AJ166" s="23"/>
     </row>
     <row r="167" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="32"/>
+      <c r="A167" s="56"/>
       <c r="B167" s="15">
         <v>161</v>
       </c>
-      <c r="C167" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D167" s="47"/>
-      <c r="E167" s="47"/>
-      <c r="F167" s="47"/>
-      <c r="G167" s="47"/>
-      <c r="H167" s="47"/>
-      <c r="I167" s="47"/>
-      <c r="J167" s="48"/>
-      <c r="K167" s="65"/>
+      <c r="C167" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D167" s="45"/>
+      <c r="E167" s="45"/>
+      <c r="F167" s="45"/>
+      <c r="G167" s="45"/>
+      <c r="H167" s="45"/>
+      <c r="I167" s="45"/>
+      <c r="J167" s="46"/>
+      <c r="K167" s="64"/>
       <c r="L167" s="5"/>
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
@@ -11783,22 +12486,22 @@
       <c r="AJ167" s="23"/>
     </row>
     <row r="168" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="33">
+      <c r="A168" s="50">
         <v>81</v>
       </c>
       <c r="B168" s="16">
         <v>162</v>
       </c>
-      <c r="C168" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="D168" s="44"/>
-      <c r="E168" s="44"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="44"/>
-      <c r="I168" s="44"/>
-      <c r="J168" s="45"/>
+      <c r="C168" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D168" s="53"/>
+      <c r="E168" s="53"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="53"/>
+      <c r="H168" s="53"/>
+      <c r="I168" s="53"/>
+      <c r="J168" s="54"/>
       <c r="K168" s="17"/>
       <c r="L168" s="5"/>
       <c r="M168" s="6"/>
@@ -11827,7 +12530,7 @@
       <c r="AJ168" s="23"/>
     </row>
     <row r="169" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="34"/>
+      <c r="A169" s="51"/>
       <c r="B169" s="16">
         <v>163</v>
       </c>
@@ -11867,24 +12570,24 @@
       <c r="AJ169" s="23"/>
     </row>
     <row r="170" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="31">
+      <c r="A170" s="42">
         <v>82</v>
       </c>
       <c r="B170" s="15">
         <v>164</v>
       </c>
-      <c r="C170" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D170" s="62"/>
-      <c r="E170" s="62"/>
-      <c r="F170" s="63"/>
-      <c r="G170" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="H170" s="62"/>
-      <c r="I170" s="62"/>
-      <c r="J170" s="63"/>
+      <c r="C170" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D170" s="70"/>
+      <c r="E170" s="70"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H170" s="70"/>
+      <c r="I170" s="70"/>
+      <c r="J170" s="71"/>
       <c r="K170" s="17"/>
       <c r="L170" s="5"/>
       <c r="M170" s="6"/>
@@ -11913,22 +12616,22 @@
       <c r="AJ170" s="23"/>
     </row>
     <row r="171" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="32"/>
+      <c r="A171" s="56"/>
       <c r="B171" s="15">
         <v>165</v>
       </c>
-      <c r="C171" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D171" s="62"/>
-      <c r="E171" s="62"/>
-      <c r="F171" s="63"/>
-      <c r="G171" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="H171" s="62"/>
-      <c r="I171" s="62"/>
-      <c r="J171" s="63"/>
+      <c r="C171" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D171" s="70"/>
+      <c r="E171" s="70"/>
+      <c r="F171" s="71"/>
+      <c r="G171" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H171" s="70"/>
+      <c r="I171" s="70"/>
+      <c r="J171" s="71"/>
       <c r="K171" s="17"/>
       <c r="L171" s="5"/>
       <c r="M171" s="6"/>
@@ -11957,7 +12660,7 @@
       <c r="AJ171" s="23"/>
     </row>
     <row r="172" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="33">
+      <c r="A172" s="50">
         <v>83</v>
       </c>
       <c r="B172" s="16">
@@ -11999,22 +12702,22 @@
       <c r="AJ172" s="23"/>
     </row>
     <row r="173" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="34"/>
+      <c r="A173" s="51"/>
       <c r="B173" s="16">
         <v>167</v>
       </c>
-      <c r="C173" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D173" s="59"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="59"/>
-      <c r="G173" s="59"/>
-      <c r="H173" s="59"/>
-      <c r="I173" s="59"/>
-      <c r="J173" s="60"/>
-      <c r="K173" s="41" t="s">
-        <v>84</v>
+      <c r="C173" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D173" s="66"/>
+      <c r="E173" s="66"/>
+      <c r="F173" s="66"/>
+      <c r="G173" s="66"/>
+      <c r="H173" s="66"/>
+      <c r="I173" s="66"/>
+      <c r="J173" s="67"/>
+      <c r="K173" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="L173" s="5"/>
       <c r="M173" s="6"/>
@@ -12043,23 +12746,23 @@
       <c r="AJ173" s="23"/>
     </row>
     <row r="174" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="31">
+      <c r="A174" s="42">
         <v>84</v>
       </c>
       <c r="B174" s="15">
         <v>168</v>
       </c>
-      <c r="C174" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D174" s="36"/>
-      <c r="E174" s="36"/>
-      <c r="F174" s="36"/>
-      <c r="G174" s="36"/>
-      <c r="H174" s="36"/>
-      <c r="I174" s="36"/>
-      <c r="J174" s="37"/>
-      <c r="K174" s="57"/>
+      <c r="C174" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D174" s="58"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="58"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="58"/>
+      <c r="J174" s="59"/>
+      <c r="K174" s="68"/>
       <c r="L174" s="5"/>
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
@@ -12087,21 +12790,21 @@
       <c r="AJ174" s="23"/>
     </row>
     <row r="175" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="32"/>
+      <c r="A175" s="56"/>
       <c r="B175" s="15">
         <v>169</v>
       </c>
-      <c r="C175" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
-      <c r="G175" s="36"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="36"/>
-      <c r="J175" s="37"/>
-      <c r="K175" s="42"/>
+      <c r="C175" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D175" s="58"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="58"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="58"/>
+      <c r="J175" s="59"/>
+      <c r="K175" s="48"/>
       <c r="L175" s="5"/>
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
@@ -12129,37 +12832,37 @@
       <c r="AJ175" s="23"/>
     </row>
     <row r="176" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="33">
+      <c r="A176" s="50">
         <v>85</v>
       </c>
       <c r="B176" s="16">
         <v>170</v>
       </c>
       <c r="C176" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D176" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E176" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D176" s="18" t="s">
+      <c r="F176" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E176" s="18" t="s">
+      <c r="G176" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F176" s="18" t="s">
+      <c r="H176" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="G176" s="18" t="s">
+      <c r="I176" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H176" s="18" t="s">
+      <c r="J176" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I176" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J176" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="K176" s="41"/>
+      <c r="K176" s="47"/>
       <c r="L176" s="5"/>
       <c r="M176" s="6"/>
       <c r="N176" s="6"/>
@@ -12187,35 +12890,35 @@
       <c r="AJ176" s="23"/>
     </row>
     <row r="177" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="34"/>
+      <c r="A177" s="51"/>
       <c r="B177" s="16">
         <v>171</v>
       </c>
       <c r="C177" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E177" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D177" s="18" t="s">
+      <c r="F177" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E177" s="18" t="s">
+      <c r="G177" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F177" s="18" t="s">
+      <c r="H177" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G177" s="18" t="s">
+      <c r="I177" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H177" s="18" t="s">
+      <c r="J177" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I177" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J177" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K177" s="42"/>
+      <c r="K177" s="48"/>
       <c r="L177" s="5"/>
       <c r="M177" s="6"/>
       <c r="N177" s="6"/>
@@ -12243,38 +12946,38 @@
       <c r="AJ177" s="23"/>
     </row>
     <row r="178" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="31">
+      <c r="A178" s="42">
         <v>86</v>
       </c>
       <c r="B178" s="15">
         <v>172</v>
       </c>
       <c r="C178" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D178" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E178" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D178" s="21" t="s">
+      <c r="F178" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E178" s="21" t="s">
+      <c r="G178" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F178" s="21" t="s">
+      <c r="H178" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G178" s="21" t="s">
+      <c r="I178" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="H178" s="21" t="s">
+      <c r="J178" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I178" s="21" t="s">
+      <c r="K178" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="J178" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="K178" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="L178" s="5"/>
       <c r="M178" s="6"/>
@@ -12303,36 +13006,36 @@
       <c r="AJ178" s="23"/>
     </row>
     <row r="179" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="32"/>
+      <c r="A179" s="56"/>
       <c r="B179" s="15">
         <v>173</v>
       </c>
       <c r="C179" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E179" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D179" s="21" t="s">
+      <c r="F179" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E179" s="21" t="s">
+      <c r="G179" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F179" s="21" t="s">
+      <c r="H179" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G179" s="21" t="s">
+      <c r="I179" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H179" s="21" t="s">
+      <c r="J179" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I179" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J179" s="21" t="s">
-        <v>120</v>
-      </c>
       <c r="K179" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L179" s="5"/>
       <c r="M179" s="6"/>
@@ -12361,7 +13064,7 @@
       <c r="AJ179" s="23"/>
     </row>
     <row r="180" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="33">
+      <c r="A180" s="50">
         <v>87</v>
       </c>
       <c r="B180" s="16">
@@ -12373,16 +13076,16 @@
       <c r="F180" s="17"/>
       <c r="G180" s="17"/>
       <c r="H180" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I180" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J180" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="I180" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="J180" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="K180" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L180" s="5"/>
       <c r="M180" s="6"/>
@@ -12411,7 +13114,7 @@
       <c r="AJ180" s="23"/>
     </row>
     <row r="181" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="34"/>
+      <c r="A181" s="51"/>
       <c r="B181" s="16">
         <v>175</v>
       </c>
@@ -12451,7 +13154,7 @@
       <c r="AJ181" s="23"/>
     </row>
     <row r="182" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="31">
+      <c r="A182" s="42">
         <v>88</v>
       </c>
       <c r="B182" s="15">
@@ -12465,7 +13168,7 @@
       <c r="H182" s="21"/>
       <c r="I182" s="21"/>
       <c r="J182" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K182" s="17"/>
       <c r="L182" s="5"/>
@@ -12495,7 +13198,7 @@
       <c r="AJ182" s="23"/>
     </row>
     <row r="183" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="32"/>
+      <c r="A183" s="56"/>
       <c r="B183" s="15">
         <v>177</v>
       </c>
@@ -12505,16 +13208,16 @@
       <c r="F183" s="25"/>
       <c r="G183" s="25"/>
       <c r="H183" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I183" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J183" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="I183" s="21" t="s">
+      <c r="K183" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="J183" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K183" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="L183" s="5"/>
       <c r="M183" s="6"/>
@@ -12543,24 +13246,24 @@
       <c r="AJ183" s="23"/>
     </row>
     <row r="184" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="33">
+      <c r="A184" s="50">
         <v>89</v>
       </c>
       <c r="B184" s="16">
         <v>178</v>
       </c>
-      <c r="C184" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D184" s="44"/>
-      <c r="E184" s="44"/>
-      <c r="F184" s="44"/>
-      <c r="G184" s="44"/>
-      <c r="H184" s="44"/>
-      <c r="I184" s="44"/>
-      <c r="J184" s="45"/>
-      <c r="K184" s="41" t="s">
-        <v>160</v>
+      <c r="C184" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D184" s="53"/>
+      <c r="E184" s="53"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="53"/>
+      <c r="H184" s="53"/>
+      <c r="I184" s="53"/>
+      <c r="J184" s="54"/>
+      <c r="K184" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="L184" s="5"/>
       <c r="M184" s="6"/>
@@ -12589,21 +13292,21 @@
       <c r="AJ184" s="23"/>
     </row>
     <row r="185" spans="1:36" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="34"/>
+      <c r="A185" s="51"/>
       <c r="B185" s="16">
         <v>179</v>
       </c>
-      <c r="C185" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D185" s="44"/>
-      <c r="E185" s="44"/>
-      <c r="F185" s="44"/>
-      <c r="G185" s="44"/>
-      <c r="H185" s="44"/>
-      <c r="I185" s="44"/>
-      <c r="J185" s="45"/>
-      <c r="K185" s="42"/>
+      <c r="C185" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="D185" s="53"/>
+      <c r="E185" s="53"/>
+      <c r="F185" s="53"/>
+      <c r="G185" s="53"/>
+      <c r="H185" s="53"/>
+      <c r="I185" s="53"/>
+      <c r="J185" s="54"/>
+      <c r="K185" s="48"/>
       <c r="L185" s="5"/>
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
@@ -12631,157 +13334,157 @@
       <c r="AJ185" s="23"/>
     </row>
     <row r="186" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="31">
+      <c r="A186" s="42">
         <v>90</v>
       </c>
       <c r="B186" s="15">
         <v>180</v>
       </c>
-      <c r="C186" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D186" s="36"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="36"/>
-      <c r="G186" s="36"/>
-      <c r="H186" s="36"/>
-      <c r="I186" s="36"/>
-      <c r="J186" s="37"/>
-      <c r="K186" s="41" t="s">
-        <v>161</v>
+      <c r="C186" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D186" s="58"/>
+      <c r="E186" s="58"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="58"/>
+      <c r="J186" s="59"/>
+      <c r="K186" s="47" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="187" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="32"/>
+      <c r="A187" s="56"/>
       <c r="B187" s="15">
         <v>181</v>
       </c>
-      <c r="C187" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D187" s="36"/>
-      <c r="E187" s="36"/>
-      <c r="F187" s="36"/>
-      <c r="G187" s="36"/>
-      <c r="H187" s="36"/>
-      <c r="I187" s="36"/>
-      <c r="J187" s="37"/>
-      <c r="K187" s="42"/>
+      <c r="C187" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D187" s="58"/>
+      <c r="E187" s="58"/>
+      <c r="F187" s="58"/>
+      <c r="G187" s="58"/>
+      <c r="H187" s="58"/>
+      <c r="I187" s="58"/>
+      <c r="J187" s="59"/>
+      <c r="K187" s="48"/>
     </row>
     <row r="188" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="33">
+      <c r="A188" s="50">
         <v>91</v>
       </c>
       <c r="B188" s="16">
         <v>182</v>
       </c>
-      <c r="C188" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D188" s="44"/>
-      <c r="E188" s="44"/>
-      <c r="F188" s="44"/>
-      <c r="G188" s="44"/>
-      <c r="H188" s="44"/>
-      <c r="I188" s="44"/>
-      <c r="J188" s="45"/>
-      <c r="K188" s="41" t="s">
-        <v>162</v>
+      <c r="C188" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D188" s="53"/>
+      <c r="E188" s="53"/>
+      <c r="F188" s="53"/>
+      <c r="G188" s="53"/>
+      <c r="H188" s="53"/>
+      <c r="I188" s="53"/>
+      <c r="J188" s="54"/>
+      <c r="K188" s="47" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="189" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="34"/>
+      <c r="A189" s="51"/>
       <c r="B189" s="16">
         <v>183</v>
       </c>
-      <c r="C189" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D189" s="44"/>
-      <c r="E189" s="44"/>
-      <c r="F189" s="44"/>
-      <c r="G189" s="44"/>
-      <c r="H189" s="44"/>
-      <c r="I189" s="44"/>
-      <c r="J189" s="45"/>
-      <c r="K189" s="42"/>
+      <c r="C189" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D189" s="53"/>
+      <c r="E189" s="53"/>
+      <c r="F189" s="53"/>
+      <c r="G189" s="53"/>
+      <c r="H189" s="53"/>
+      <c r="I189" s="53"/>
+      <c r="J189" s="54"/>
+      <c r="K189" s="48"/>
     </row>
     <row r="190" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="31">
+      <c r="A190" s="42">
         <v>92</v>
       </c>
       <c r="B190" s="15">
         <v>184</v>
       </c>
-      <c r="C190" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D190" s="36"/>
-      <c r="E190" s="36"/>
-      <c r="F190" s="36"/>
-      <c r="G190" s="36"/>
-      <c r="H190" s="36"/>
-      <c r="I190" s="36"/>
-      <c r="J190" s="37"/>
-      <c r="K190" s="41" t="s">
-        <v>163</v>
+      <c r="C190" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D190" s="58"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="58"/>
+      <c r="G190" s="58"/>
+      <c r="H190" s="58"/>
+      <c r="I190" s="58"/>
+      <c r="J190" s="59"/>
+      <c r="K190" s="47" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="32"/>
+      <c r="A191" s="56"/>
       <c r="B191" s="15">
         <v>185</v>
       </c>
-      <c r="C191" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D191" s="36"/>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36"/>
-      <c r="I191" s="36"/>
-      <c r="J191" s="37"/>
-      <c r="K191" s="57"/>
+      <c r="C191" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D191" s="58"/>
+      <c r="E191" s="58"/>
+      <c r="F191" s="58"/>
+      <c r="G191" s="58"/>
+      <c r="H191" s="58"/>
+      <c r="I191" s="58"/>
+      <c r="J191" s="59"/>
+      <c r="K191" s="68"/>
     </row>
     <row r="192" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="33">
+      <c r="A192" s="50">
         <v>93</v>
       </c>
       <c r="B192" s="16">
         <v>186</v>
       </c>
-      <c r="C192" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D192" s="44"/>
-      <c r="E192" s="44"/>
-      <c r="F192" s="44"/>
-      <c r="G192" s="44"/>
-      <c r="H192" s="44"/>
-      <c r="I192" s="44"/>
-      <c r="J192" s="45"/>
-      <c r="K192" s="57"/>
+      <c r="C192" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D192" s="53"/>
+      <c r="E192" s="53"/>
+      <c r="F192" s="53"/>
+      <c r="G192" s="53"/>
+      <c r="H192" s="53"/>
+      <c r="I192" s="53"/>
+      <c r="J192" s="54"/>
+      <c r="K192" s="68"/>
     </row>
     <row r="193" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="34"/>
+      <c r="A193" s="51"/>
       <c r="B193" s="16">
         <v>187</v>
       </c>
-      <c r="C193" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D193" s="44"/>
-      <c r="E193" s="44"/>
-      <c r="F193" s="44"/>
-      <c r="G193" s="44"/>
-      <c r="H193" s="44"/>
-      <c r="I193" s="44"/>
-      <c r="J193" s="45"/>
-      <c r="K193" s="42"/>
+      <c r="C193" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D193" s="53"/>
+      <c r="E193" s="53"/>
+      <c r="F193" s="53"/>
+      <c r="G193" s="53"/>
+      <c r="H193" s="53"/>
+      <c r="I193" s="53"/>
+      <c r="J193" s="54"/>
+      <c r="K193" s="48"/>
     </row>
     <row r="194" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="31">
+      <c r="A194" s="42">
         <v>94</v>
       </c>
       <c r="B194" s="15">
@@ -12798,7 +13501,7 @@
       <c r="K194" s="17"/>
     </row>
     <row r="195" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="32"/>
+      <c r="A195" s="56"/>
       <c r="B195" s="15">
         <v>189</v>
       </c>
@@ -12813,7 +13516,7 @@
       <c r="K195" s="17"/>
     </row>
     <row r="196" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="33">
+      <c r="A196" s="50">
         <v>95</v>
       </c>
       <c r="B196" s="16">
@@ -12830,7 +13533,7 @@
       <c r="K196" s="17"/>
     </row>
     <row r="197" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="34"/>
+      <c r="A197" s="51"/>
       <c r="B197" s="16">
         <v>191</v>
       </c>
@@ -12846,35 +13549,230 @@
     </row>
   </sheetData>
   <mergeCells count="270">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="C190:J190"/>
+    <mergeCell ref="K190:K193"/>
+    <mergeCell ref="C191:J191"/>
+    <mergeCell ref="A192:A193"/>
+    <mergeCell ref="C192:J192"/>
+    <mergeCell ref="C193:J193"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="C186:J186"/>
+    <mergeCell ref="K186:K187"/>
+    <mergeCell ref="C187:J187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="C188:J188"/>
+    <mergeCell ref="K188:K189"/>
+    <mergeCell ref="C189:J189"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="K176:K177"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="C184:J184"/>
+    <mergeCell ref="K184:K185"/>
+    <mergeCell ref="C185:J185"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="C173:J173"/>
+    <mergeCell ref="K173:K175"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="C174:J174"/>
+    <mergeCell ref="C175:J175"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="C168:J168"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="C170:F170"/>
+    <mergeCell ref="G170:J170"/>
+    <mergeCell ref="C171:F171"/>
+    <mergeCell ref="G171:J171"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="C166:J166"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="C167:J167"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="C158:J158"/>
+    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="C159:J159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="C160:J160"/>
+    <mergeCell ref="C161:J161"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="C154:J154"/>
+    <mergeCell ref="K154:K155"/>
+    <mergeCell ref="C155:J155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="C156:J156"/>
+    <mergeCell ref="K156:K157"/>
+    <mergeCell ref="C157:J157"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="C152:J152"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="C153:J153"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="C141:J141"/>
+    <mergeCell ref="K141:K143"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="C142:J142"/>
+    <mergeCell ref="C143:J143"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="G138:J138"/>
+    <mergeCell ref="C139:F139"/>
+    <mergeCell ref="G139:J139"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="C134:J134"/>
+    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="C135:J135"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="C126:J126"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="C127:J127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="C128:J128"/>
+    <mergeCell ref="C129:J129"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="C122:J122"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="C123:J123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="C124:J124"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="C125:J125"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C120:J120"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="C121:J121"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="C109:J109"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:J110"/>
+    <mergeCell ref="C111:J111"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="C104:J104"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C102:J102"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="C103:J103"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="K94:K97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="C90:J90"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="C91:J91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="C72:J72"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C60:J60"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="C61:J61"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:J46"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J33"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="K26:K27"/>
@@ -12892,230 +13790,35 @@
     <mergeCell ref="C24:J24"/>
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C60:J60"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="C61:J61"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="C57:J57"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="K62:K65"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="C90:J90"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="C91:J91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="C102:J102"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="C103:J103"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="K94:K97"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="C109:J109"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="C111:J111"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="C104:J104"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="C106:F106"/>
-    <mergeCell ref="G106:J106"/>
-    <mergeCell ref="C107:F107"/>
-    <mergeCell ref="G107:J107"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="C122:J122"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="C123:J123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="C124:J124"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="C125:J125"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="C120:J120"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="C121:J121"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="C134:J134"/>
-    <mergeCell ref="K134:K135"/>
-    <mergeCell ref="C135:J135"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="C126:J126"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="C127:J127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="C128:J128"/>
-    <mergeCell ref="C129:J129"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="C141:J141"/>
-    <mergeCell ref="K141:K143"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="C142:J142"/>
-    <mergeCell ref="C143:J143"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="C136:J136"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="G138:J138"/>
-    <mergeCell ref="C139:F139"/>
-    <mergeCell ref="G139:J139"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="C154:J154"/>
-    <mergeCell ref="K154:K155"/>
-    <mergeCell ref="C155:J155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="C156:J156"/>
-    <mergeCell ref="K156:K157"/>
-    <mergeCell ref="C157:J157"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="K144:K145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="C152:J152"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="C153:J153"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="C166:J166"/>
-    <mergeCell ref="K166:K167"/>
-    <mergeCell ref="C167:J167"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="C158:J158"/>
-    <mergeCell ref="K158:K161"/>
-    <mergeCell ref="C159:J159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="C160:J160"/>
-    <mergeCell ref="C161:J161"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="C173:J173"/>
-    <mergeCell ref="K173:K175"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="C174:J174"/>
-    <mergeCell ref="C175:J175"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="C168:J168"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="C170:F170"/>
-    <mergeCell ref="G170:J170"/>
-    <mergeCell ref="C171:F171"/>
-    <mergeCell ref="G171:J171"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="C186:J186"/>
-    <mergeCell ref="K186:K187"/>
-    <mergeCell ref="C187:J187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="C188:J188"/>
-    <mergeCell ref="K188:K189"/>
-    <mergeCell ref="C189:J189"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="K176:K177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="C184:J184"/>
-    <mergeCell ref="K184:K185"/>
-    <mergeCell ref="C185:J185"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="C190:J190"/>
-    <mergeCell ref="K190:K193"/>
-    <mergeCell ref="C191:J191"/>
-    <mergeCell ref="A192:A193"/>
-    <mergeCell ref="C192:J192"/>
-    <mergeCell ref="C193:J193"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/JRL_Simulator/Win32/Debug/Config/Config_Simulator.xlsx
+++ b/JRL_Simulator/Win32/Debug/Config/Config_Simulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\03. Rotem\2021. 11. Singapore_JRL\011_Simulator\010_Source\JRL_Simulator\Win32\Debug\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE610007-0EDA-49EF-9C71-7E286F5543E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D540619-8DB4-4D2B-A8CF-04976841ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="791" activeTab="1" xr2:uid="{78B8D3DC-9A5B-4C98-B74C-04A1A542662F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="791" activeTab="1" xr2:uid="{78B8D3DC-9A5B-4C98-B74C-04A1A542662F}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,6 +1575,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1904,20 +1907,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D7D11C-CEBF-4B3C-9ACA-7C7791C0172D}">
-  <dimension ref="B2:H39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="75" customWidth="1"/>
     <col min="2" max="5" width="7.625" style="1" customWidth="1"/>
     <col min="6" max="8" width="24.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31">
+        <v>5</v>
+      </c>
+      <c r="G1" s="31">
+        <v>6</v>
+      </c>
+      <c r="H1" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="75">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1940,7 +1972,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="75">
+        <v>2</v>
+      </c>
       <c r="B3" s="74" t="s">
         <v>202</v>
       </c>
@@ -1954,7 +1989,10 @@
       <c r="G3" s="73"/>
       <c r="H3" s="73"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="75">
+        <v>3</v>
+      </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -1975,7 +2013,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f>+B4+C4</f>
         <v>192</v>
@@ -1997,7 +2035,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <f t="shared" ref="B6:B39" si="0">+B5+C5</f>
         <v>384</v>
@@ -2019,7 +2057,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>576</v>
@@ -2041,7 +2079,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>768</v>
@@ -2063,7 +2101,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>960</v>
@@ -2078,14 +2116,14 @@
         <v>165</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>186</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>1152</v>
@@ -2107,7 +2145,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>1172</v>
@@ -2129,7 +2167,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>1192</v>
@@ -2151,7 +2189,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>1212</v>
@@ -2173,7 +2211,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>1232</v>
@@ -2195,7 +2233,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>1252</v>
@@ -2217,7 +2255,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>1272</v>
